--- a/inst/extdata/fredi/national/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/national/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91DE60B-0F56-40B0-B073-ECBDC5B00A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0931E3-6248-41F5-B806-AFA6CD657CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2380,24 +2380,9 @@
     <t>elecTD_growthFactor_nat</t>
   </si>
   <si>
-    <t>forestryLoss_growthFactor_SSP2_nat</t>
-  </si>
-  <si>
-    <t>forestryLoss_growthFactor_SSP5_nat</t>
-  </si>
-  <si>
     <t>rail_growth_factor_nat</t>
   </si>
   <si>
-    <t>road_miles_and_pop_NoAdapt_nat</t>
-  </si>
-  <si>
-    <t>road_miles_and_pop_Proactive_nat</t>
-  </si>
-  <si>
-    <t>road_miles_and_pop_Reactive_nat</t>
-  </si>
-  <si>
     <t>SouthwestDust_pop_nat</t>
   </si>
   <si>
@@ -2570,6 +2555,21 @@
   </si>
   <si>
     <t>65-99 Population Proportion Adjustment Factor BenMAP combined with SW state population subset</t>
+  </si>
+  <si>
+    <t>forestryLoss_growthFactor_nat_SSP2</t>
+  </si>
+  <si>
+    <t>forestryLoss_growthFactor_nat_SSP5</t>
+  </si>
+  <si>
+    <t>road_miles_and_pop_nat_NoAdapt</t>
+  </si>
+  <si>
+    <t>road_miles_and_pop_nat_Proactive</t>
+  </si>
+  <si>
+    <t>road_miles_and_pop_nat_Reactive</t>
   </si>
 </sst>
 </file>
@@ -9967,9 +9967,9 @@
   </sheetPr>
   <dimension ref="A1:U407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H221" sqref="H221"/>
+      <selection pane="topRight" activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14842,13 +14842,13 @@
         <v>84</v>
       </c>
       <c r="I154" s="28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J154" s="32" t="s">
         <v>683</v>
       </c>
       <c r="K154" s="28" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="L154" s="28" t="s">
         <v>88</v>
@@ -14891,13 +14891,13 @@
         <v>84</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J155" s="32" t="s">
         <v>684</v>
       </c>
       <c r="K155" s="28" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L155" s="28" t="s">
         <v>89</v>
@@ -14940,13 +14940,13 @@
         <v>84</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="J156" s="32" t="s">
         <v>685</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L156" s="28" t="s">
         <v>89</v>
@@ -14989,13 +14989,13 @@
         <v>84</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="J157" s="32" t="s">
         <v>686</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="L157" s="28" t="s">
         <v>88</v>
@@ -15038,13 +15038,13 @@
         <v>84</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J158" s="32" t="s">
         <v>687</v>
       </c>
       <c r="K158" s="28" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L158" s="28" t="s">
         <v>89</v>
@@ -15084,7 +15084,7 @@
         <v>532</v>
       </c>
       <c r="H159" s="28" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="I159" s="28" t="s">
         <v>88</v>
@@ -15387,7 +15387,7 @@
         <v>88</v>
       </c>
       <c r="K165" s="28" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L165" s="28" t="s">
         <v>88</v>
@@ -15436,7 +15436,7 @@
         <v>88</v>
       </c>
       <c r="K166" s="28" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L166" s="28" t="s">
         <v>88</v>
@@ -15675,7 +15675,7 @@
         <v>84</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J171" s="28" t="s">
         <v>88</v>
@@ -15724,7 +15724,7 @@
         <v>84</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J172" s="28" t="s">
         <v>88</v>
@@ -15776,7 +15776,7 @@
         <v>88</v>
       </c>
       <c r="J173" s="28" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="K173" s="28" t="s">
         <v>89</v>
@@ -15917,7 +15917,7 @@
         <v>533</v>
       </c>
       <c r="H176" s="28" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I176" s="28" t="s">
         <v>88</v>
@@ -15926,7 +15926,7 @@
         <v>88</v>
       </c>
       <c r="K176" s="28" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="L176" s="28" t="s">
         <v>89</v>
@@ -15969,7 +15969,7 @@
         <v>84</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>88</v>
@@ -16018,7 +16018,7 @@
         <v>84</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>88</v>
@@ -16067,13 +16067,13 @@
         <v>84</v>
       </c>
       <c r="I179" s="32" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K179" s="28" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L179" s="28" t="s">
         <v>88</v>
@@ -16410,13 +16410,13 @@
         <v>84</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J186" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K186" s="28" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="L186" s="28" t="s">
         <v>88</v>
@@ -16459,13 +16459,13 @@
         <v>84</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K187" s="28" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L187" s="28" t="s">
         <v>88</v>
@@ -16508,13 +16508,13 @@
         <v>84</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J188" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K188" s="28" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="L188" s="28" t="s">
         <v>88</v>
@@ -16557,7 +16557,7 @@
         <v>84</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J189" s="28" t="s">
         <v>88</v>
@@ -16606,7 +16606,7 @@
         <v>84</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J190" s="28" t="s">
         <v>88</v>
@@ -16655,10 +16655,10 @@
         <v>84</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="K191" s="28" t="s">
         <v>119</v>
@@ -16701,13 +16701,13 @@
         <v>52</v>
       </c>
       <c r="H192" s="28" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I192" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J192" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K192" s="28" t="s">
         <v>88</v>
@@ -16750,13 +16750,13 @@
         <v>126</v>
       </c>
       <c r="H193" s="28" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I193" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J193" s="25" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K193" s="28" t="s">
         <v>88</v>
@@ -16802,13 +16802,13 @@
         <v>84</v>
       </c>
       <c r="I194" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="J194" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K194" s="28" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="L194" s="28" t="s">
         <v>88</v>
@@ -16851,13 +16851,13 @@
         <v>84</v>
       </c>
       <c r="I195" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="J195" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K195" s="28" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="L195" s="28" t="s">
         <v>88</v>
@@ -16900,7 +16900,7 @@
         <v>84</v>
       </c>
       <c r="I196" s="32" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="J196" s="28" t="s">
         <v>88</v>
@@ -16949,13 +16949,13 @@
         <v>84</v>
       </c>
       <c r="I197" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K197" s="28" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="L197" s="28" t="s">
         <v>88</v>
@@ -16998,13 +16998,13 @@
         <v>84</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K198" s="28" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="L198" s="28" t="s">
         <v>88</v>
@@ -17047,13 +17047,13 @@
         <v>84</v>
       </c>
       <c r="I199" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="J199" s="32" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K199" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L199" s="28" t="s">
         <v>89</v>
@@ -17146,13 +17146,13 @@
         <v>84</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="K201" s="28" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L201" s="28" t="s">
         <v>89</v>
@@ -17195,13 +17195,13 @@
         <v>84</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="K202" s="28" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L202" s="28" t="s">
         <v>88</v>
@@ -17244,10 +17244,10 @@
         <v>84</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="K203" s="28" t="s">
         <v>119</v>
@@ -17348,7 +17348,7 @@
         <v>88</v>
       </c>
       <c r="K205" s="28" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L205" s="28" t="s">
         <v>89</v>
@@ -17593,7 +17593,7 @@
         <v>88</v>
       </c>
       <c r="K210" s="28" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L210" s="28" t="s">
         <v>88</v>
@@ -17636,13 +17636,13 @@
         <v>84</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J211" s="32" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="K211" s="28" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L211" s="28" t="s">
         <v>89</v>
@@ -17734,7 +17734,7 @@
         <v>84</v>
       </c>
       <c r="I213" s="32" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="J213" s="28" t="s">
         <v>88</v>
@@ -17783,7 +17783,7 @@
         <v>84</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="J214" s="28" t="s">
         <v>88</v>
@@ -17832,7 +17832,7 @@
         <v>84</v>
       </c>
       <c r="I215" s="32" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="J215" s="28" t="s">
         <v>88</v>
@@ -18149,7 +18149,7 @@
         <v>8</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>690</v>
+        <v>749</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>627</v>
@@ -18180,7 +18180,7 @@
         <v>9</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>628</v>
@@ -18244,7 +18244,7 @@
         <v>11</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>128</v>
@@ -18275,7 +18275,7 @@
         <v>12</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>693</v>
+        <v>751</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>538</v>
@@ -18308,7 +18308,7 @@
         <v>13</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>694</v>
+        <v>752</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>539</v>
@@ -18341,7 +18341,7 @@
         <v>14</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>540</v>
@@ -18374,7 +18374,7 @@
         <v>15</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D235" s="26" t="s">
         <v>668</v>
@@ -18407,7 +18407,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D236" s="26" t="s">
         <v>663</v>
@@ -18440,7 +18440,7 @@
         <v>17</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D237" s="26" t="s">
         <v>664</v>
@@ -18471,7 +18471,7 @@
         <v>18</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D238" s="26" t="s">
         <v>665</v>
@@ -18502,7 +18502,7 @@
         <v>19</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D239" s="26" t="s">
         <v>666</v>
@@ -18533,7 +18533,7 @@
         <v>20</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D240" s="26" t="s">
         <v>240</v>
@@ -18564,7 +18564,7 @@
         <v>21</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D241" s="26" t="s">
         <v>615</v>
@@ -18595,7 +18595,7 @@
         <v>22</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D242" s="26" t="s">
         <v>630</v>
@@ -18626,7 +18626,7 @@
         <v>23</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D243" s="26" t="s">
         <v>102</v>
@@ -18657,7 +18657,7 @@
         <v>24</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D244" s="26" t="s">
         <v>122</v>
@@ -18688,7 +18688,7 @@
         <v>25</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D245" s="26" t="s">
         <v>120</v>
@@ -18716,7 +18716,7 @@
         <v>26</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D246" s="26" t="s">
         <v>121</v>
@@ -18744,7 +18744,7 @@
         <v>27</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D247" s="26" t="s">
         <v>596</v>
@@ -18802,7 +18802,7 @@
         <v>29</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D249" s="26" t="s">
         <v>342</v>
@@ -18828,7 +18828,7 @@
         <v>30</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D250" s="26" t="s">
         <v>616</v>
@@ -18856,7 +18856,7 @@
         <v>31</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D251" s="26" t="s">
         <v>672</v>
@@ -18884,7 +18884,7 @@
         <v>32</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>241</v>
@@ -18912,7 +18912,7 @@
         <v>33</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D253" s="26" t="s">
         <v>343</v>
@@ -18938,7 +18938,7 @@
         <v>34</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D254" s="26" t="s">
         <v>16</v>
@@ -18966,7 +18966,7 @@
         <v>35</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D255" s="26" t="s">
         <v>617</v>
@@ -18994,7 +18994,7 @@
         <v>36</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D256" s="26" t="s">
         <v>667</v>
@@ -19022,7 +19022,7 @@
         <v>37</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>105</v>
@@ -19080,7 +19080,7 @@
         <v>39</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D259" s="26" t="s">
         <v>238</v>
@@ -19108,7 +19108,7 @@
         <v>40</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D260" s="26" t="s">
         <v>237</v>
@@ -19136,7 +19136,7 @@
         <v>41</v>
       </c>
       <c r="C261" s="32" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D261" s="26" t="s">
         <v>239</v>
@@ -19164,7 +19164,7 @@
         <v>42</v>
       </c>
       <c r="C262" s="32" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D262" s="26" t="s">
         <v>255</v>
@@ -19192,7 +19192,7 @@
         <v>43</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D263" s="26" t="s">
         <v>95</v>
@@ -19250,7 +19250,7 @@
         <v>45</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D265" s="26" t="s">
         <v>52</v>
@@ -19278,7 +19278,7 @@
         <v>46</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D266" s="26" t="s">
         <v>48</v>
@@ -19306,7 +19306,7 @@
         <v>47</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D267" s="26" t="s">
         <v>126</v>
@@ -19334,10 +19334,10 @@
         <v>48</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E268" s="80" t="s">
         <v>157</v>
@@ -19362,10 +19362,10 @@
         <v>49</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E269" s="80" t="s">
         <v>157</v>
@@ -19390,7 +19390,7 @@
         <v>50</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D270" s="26" t="s">
         <v>670</v>
@@ -19418,7 +19418,7 @@
         <v>51</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D271" s="26" t="s">
         <v>671</v>
@@ -19446,10 +19446,10 @@
         <v>52</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E272" s="80" t="s">
         <v>157</v>
@@ -19474,10 +19474,10 @@
         <v>53</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E273" s="80" t="s">
         <v>157</v>
@@ -19502,10 +19502,10 @@
         <v>54</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E274" s="80" t="s">
         <v>157</v>
@@ -19530,7 +19530,7 @@
         <v>55</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D275" s="26" t="s">
         <v>641</v>
@@ -19558,10 +19558,10 @@
         <v>56</v>
       </c>
       <c r="C276" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="D276" s="26" t="s">
         <v>734</v>
-      </c>
-      <c r="D276" s="26" t="s">
-        <v>739</v>
       </c>
       <c r="E276" s="80" t="s">
         <v>157</v>
@@ -19586,10 +19586,10 @@
         <v>57</v>
       </c>
       <c r="C277" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="D277" s="26" t="s">
         <v>735</v>
-      </c>
-      <c r="D277" s="26" t="s">
-        <v>740</v>
       </c>
       <c r="E277" s="80" t="s">
         <v>157</v>
@@ -19614,10 +19614,10 @@
         <v>58</v>
       </c>
       <c r="C278" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="D278" s="26" t="s">
         <v>736</v>
-      </c>
-      <c r="D278" s="26" t="s">
-        <v>741</v>
       </c>
       <c r="E278" s="80" t="s">
         <v>157</v>
@@ -19642,10 +19642,10 @@
         <v>59</v>
       </c>
       <c r="C279" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="D279" s="26" t="s">
         <v>737</v>
-      </c>
-      <c r="D279" s="26" t="s">
-        <v>742</v>
       </c>
       <c r="E279" s="80" t="s">
         <v>157</v>
@@ -19670,10 +19670,10 @@
         <v>60</v>
       </c>
       <c r="C280" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="D280" s="26" t="s">
         <v>738</v>
-      </c>
-      <c r="D280" s="26" t="s">
-        <v>743</v>
       </c>
       <c r="E280" s="80" t="s">
         <v>157</v>
@@ -19698,7 +19698,7 @@
         <v>61</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D281" s="26" t="s">
         <v>618</v>
@@ -19726,7 +19726,7 @@
         <v>62</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D282" s="26" t="s">
         <v>409</v>
@@ -19752,7 +19752,7 @@
         <v>63</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D283" s="26" t="s">
         <v>410</v>

--- a/inst/extdata/fredi/national/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/national/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0931E3-6248-41F5-B806-AFA6CD657CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC4282-55E5-4319-B410-ECCAC3825BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="756">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2570,6 +2570,12 @@
   </si>
   <si>
     <t>road_miles_and_pop_nat_Reactive</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>NAT</t>
   </si>
 </sst>
 </file>
@@ -3404,7 +3410,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3652,6 +3658,10 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -8235,8 +8245,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B358:F407" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="B358:F407" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B359:F409" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="B359:F409" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -8458,7 +8468,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B346:D353" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B346:D354" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
@@ -9547,11 +9557,11 @@
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9875,15 +9885,15 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9965,11 +9975,11 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E236" sqref="E236"/>
+      <selection pane="topRight" activeCell="E353" sqref="E353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20783,7 +20793,7 @@
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B353" s="4">
+      <c r="B353" s="93">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
@@ -20796,928 +20806,960 @@
       </c>
       <c r="E353" s="2"/>
     </row>
-    <row r="356" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A356" s="16"/>
-      <c r="B356" s="17" t="s">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B354" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>8</v>
+      </c>
+      <c r="C354" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="D354" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>National</v>
+      </c>
+      <c r="E354" s="2"/>
+    </row>
+    <row r="357" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A357" s="16"/>
+      <c r="B357" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C356" s="17"/>
-      <c r="D356" s="17"/>
-      <c r="E356" s="17"/>
-      <c r="F356" s="17"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="17"/>
-      <c r="I356" s="17"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="17"/>
-      <c r="L356" s="17"/>
-      <c r="M356" s="17"/>
-      <c r="N356" s="17"/>
-      <c r="O356" s="17"/>
-      <c r="P356" s="17"/>
-      <c r="Q356" s="17"/>
-      <c r="R356" s="17"/>
-      <c r="S356" s="17"/>
-      <c r="T356" s="17"/>
-      <c r="U356" s="17"/>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B358" s="2" t="s">
+      <c r="C357" s="17"/>
+      <c r="D357" s="17"/>
+      <c r="E357" s="17"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="H357" s="17"/>
+      <c r="I357" s="17"/>
+      <c r="J357" s="17"/>
+      <c r="K357" s="17"/>
+      <c r="L357" s="17"/>
+      <c r="M357" s="17"/>
+      <c r="N357" s="17"/>
+      <c r="O357" s="17"/>
+      <c r="P357" s="17"/>
+      <c r="Q357" s="17"/>
+      <c r="R357" s="17"/>
+      <c r="S357" s="17"/>
+      <c r="T357" s="17"/>
+      <c r="U357" s="17"/>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B359" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D359" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E358" s="2" t="s">
+      <c r="E359" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F358" s="9" t="s">
+      <c r="F359" s="9" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B359" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C359" s="82" t="s">
-        <v>416</v>
-      </c>
-      <c r="D359" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="E359" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F359" s="83">
-        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C360" s="82" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D360" s="82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E360" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F360" s="83">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361" s="82" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D361" s="82" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E361" s="82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F361" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C362" s="82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D362" s="82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E362" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F362" s="83">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C363" s="82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D363" s="82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E363" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F363" s="83">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C364" s="82" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D364" s="82" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E364" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F364" s="83">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C365" s="82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D365" s="82" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E365" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F365" s="83">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C366" s="82" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D366" s="82" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E366" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F366" s="83">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C367" s="82" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D367" s="82" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E367" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F367" s="83">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C368" s="82" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D368" s="82" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E368" s="82" t="s">
         <v>10</v>
       </c>
       <c r="F368" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C369" s="82" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D369" s="82" t="s">
-        <v>47</v>
+        <v>435</v>
       </c>
       <c r="E369" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F369" s="83">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C370" s="82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D370" s="82" t="s">
-        <v>438</v>
+        <v>47</v>
       </c>
       <c r="E370" s="82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F370" s="83">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C371" s="82" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D371" s="82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E371" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F371" s="83">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C372" s="82" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D372" s="82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E372" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F372" s="83">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C373" s="82" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D373" s="82" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E373" s="82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F373" s="83">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C374" s="82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D374" s="82" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E374" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F374" s="83">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C375" s="82" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D375" s="82" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E375" s="82" t="s">
         <v>10</v>
       </c>
       <c r="F375" s="83">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C376" s="82" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D376" s="82" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E376" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F376" s="83">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C377" s="82" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D377" s="82" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E377" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F377" s="83">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C378" s="82" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D378" s="82" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E378" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F378" s="83">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C379" s="82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D379" s="82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E379" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F379" s="83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B380" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C380" s="82" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D380" s="82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E380" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F380" s="83">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B381" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C381" s="82" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D381" s="82" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E381" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F381" s="83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B382" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C382" s="82" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D382" s="82" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E382" s="82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F382" s="83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B383" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C383" s="82" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D383" s="82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E383" s="82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F383" s="83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B384" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C384" s="82" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D384" s="82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E384" s="82" t="s">
         <v>8</v>
       </c>
       <c r="F384" s="83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B385" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C385" s="82" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D385" s="82" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E385" s="82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F385" s="83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B386" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C386" s="82" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D386" s="82" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E386" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F386" s="83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B387" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C387" s="82" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D387" s="82" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E387" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F387" s="83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B388" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C388" s="82" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D388" s="82" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E388" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F388" s="83">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B389" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C389" s="82" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D389" s="82" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E389" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F389" s="83">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B390" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C390" s="82" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D390" s="82" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E390" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F390" s="83">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B391" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C391" s="82" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D391" s="82" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E391" s="82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F391" s="83">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B392" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C392" s="82" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D392" s="82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E392" s="82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F392" s="83">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B393" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C393" s="82" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D393" s="82" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E393" s="82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F393" s="83">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B394" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C394" s="82" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D394" s="82" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E394" s="82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F394" s="83">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B395" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C395" s="82" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D395" s="82" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E395" s="82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F395" s="83">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B396" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C396" s="82" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D396" s="82" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E396" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F396" s="83">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B397" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C397" s="82" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D397" s="82" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E397" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F397" s="83">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="398" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B398" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C398" s="82" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D398" s="82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E398" s="82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F398" s="83">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="399" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B399" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C399" s="82" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D399" s="82" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E399" s="82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F399" s="83">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="400" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B400" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C400" s="82" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D400" s="82" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E400" s="82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F400" s="83">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="401" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B401" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C401" s="82" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D401" s="82" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E401" s="82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F401" s="83">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="402" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B402" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C402" s="82" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D402" s="82" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E402" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F402" s="83">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="403" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B403" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C403" s="82" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D403" s="82" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E403" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F403" s="83">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B404" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C404" s="82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D404" s="82" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E404" s="82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F404" s="83">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="405" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B405" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C405" s="82" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D405" s="82" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E405" s="82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F405" s="83">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="406" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B406" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C406" s="82" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D406" s="82" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E406" s="82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F406" s="83">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="407" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B407" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>48</v>
+      </c>
+      <c r="C407" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="D407" s="82" t="s">
+        <v>510</v>
+      </c>
+      <c r="E407" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F407" s="83">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B408" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
-      <c r="C407" s="82" t="s">
+      <c r="C408" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="D407" s="82" t="s">
+      <c r="D408" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="E407" s="82" t="s">
+      <c r="E408" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F407" s="83">
+      <c r="F408" s="83">
         <v>56</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B409" s="92">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>50</v>
+      </c>
+      <c r="C409" s="82" t="s">
+        <v>754</v>
+      </c>
+      <c r="D409" s="82" t="s">
+        <v>755</v>
+      </c>
+      <c r="E409" s="82" t="s">
+        <v>754</v>
+      </c>
+      <c r="F409" s="83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fredi/national/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/national/FrEDI_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC4282-55E5-4319-B410-ECCAC3825BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EA7C4-51E9-4F34-ABA8-8327819765D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="754">
   <si>
     <t>CanESM2</t>
   </si>
@@ -2437,9 +2437,6 @@
     <t>violent_crime_costs_usd_nat</t>
   </si>
   <si>
-    <t>vsl_usd_nat</t>
-  </si>
-  <si>
     <t>waterpertripvalue_nat</t>
   </si>
   <si>
@@ -2527,12 +2524,6 @@
     <t>State Population (weight) Winter Rec XC/Snowmobiling states</t>
   </si>
   <si>
-    <t>forestryLoss_growthFactor_nat</t>
-  </si>
-  <si>
-    <t>road_miles_and_pop_nat</t>
-  </si>
-  <si>
     <t>State Population (weight) Extreme Temp states combined with City Population weight</t>
   </si>
   <si>
@@ -2576,6 +2567,9 @@
   </si>
   <si>
     <t>NAT</t>
+  </si>
+  <si>
+    <t>byVariant</t>
   </si>
 </sst>
 </file>
@@ -3410,7 +3404,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3659,9 +3653,8 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -3730,7 +3723,7 @@
     <cellStyle name="YellowCell 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="201">
+  <dxfs count="200">
     <dxf>
       <fill>
         <patternFill>
@@ -3758,6 +3751,26 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4702,46 +4715,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7954,11 +7927,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Table Style 2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{03CADF67-A835-4D43-81C5-75376CF934E2}">
-      <tableStyleElement type="wholeTable" dxfId="200"/>
+      <tableStyleElement type="wholeTable" dxfId="199"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="2" xr9:uid="{5906E8DD-1157-4888-9A27-3B2DB57DF7A2}">
-      <tableStyleElement type="wholeTable" dxfId="199"/>
-      <tableStyleElement type="headerRow" dxfId="198"/>
+      <tableStyleElement type="wholeTable" dxfId="198"/>
+      <tableStyleElement type="headerRow" dxfId="197"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8160,10 +8133,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="196">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="196"/>
+    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="195"/>
     <tableColumn id="2" xr3:uid="{873A529C-ADE9-47CF-B36A-585DA33D7B04}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8171,37 +8144,37 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B296:D299" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B296:D299" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="79">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="77" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B92:I147" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B92:I147" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B93:I147">
     <sortCondition ref="C93:C147"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
+   IF(OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="62">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8210,70 +8183,70 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B288:E291" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B288:E291" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B337:J341" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B337:J341" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="53">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="47">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B359:F409" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B359:F409" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="B359:F409" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="43">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B305:J307" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B305:J307" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="36">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="35"/>
     <tableColumn id="5" xr3:uid="{6AB21964-D6DD-4BA3-BDFD-E851D5F956FF}" name="impactType"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8283,10 +8256,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -8295,23 +8268,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -8319,12 +8292,12 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8334,24 +8307,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N17" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N17" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193">
   <autoFilter ref="B3:N17" xr:uid="{AD244AAD-EF2A-4E3D-905E-7CC1947F3F1F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N4">
     <sortCondition descending="1" ref="D4"/>
@@ -8359,86 +8332,86 @@
     <sortCondition ref="C4"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="193">
+    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="192">
       <calculatedColumnFormula xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="192"/>
-    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="191"/>
-    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="190"/>
-    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="189">
+    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="190"/>
+    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="189"/>
+    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="188">
       <calculatedColumnFormula xml:space="preserve"> "row_id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="188">
+    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="187">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="187">
+    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="186">
       <calculatedColumnFormula xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="186">
+    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="185">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="185">
+    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="184">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="184">
+    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="183">
       <calculatedColumnFormula array="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="183">
+    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="182">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="182"/>
-    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="181"/>
+    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:O51" totalsRowShown="0" headerRowDxfId="180" dataDxfId="178" headerRowBorderDxfId="179" tableBorderDxfId="177" totalsRowBorderDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:O51" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176" totalsRowBorderDxfId="175">
   <autoFilter ref="B20:O51" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:O51">
     <sortCondition ref="D21:D51"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="175" totalsRowDxfId="174">
+    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="174" totalsRowDxfId="173">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="164" totalsRowDxfId="163">
       <calculatedColumnFormula array="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="163" totalsRowDxfId="162">
+    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="162" totalsRowDxfId="161">
       <calculatedColumnFormula xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="161" totalsRowDxfId="160">
+    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="160" totalsRowDxfId="159">
       <calculatedColumnFormula array="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="159" totalsRowDxfId="158">
+    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="158" totalsRowDxfId="157">
       <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{131F4380-0D81-4321-BEC8-8F7D57B7E216}" name="hasPhysicalImpacts" dataDxfId="157" totalsRowDxfId="156">
+    <tableColumn id="3" xr3:uid="{131F4380-0D81-4321-BEC8-8F7D57B7E216}" name="hasPhysicalImpacts" dataDxfId="156" totalsRowDxfId="155">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[physicalmeasure] = "N/A", 0, 1) ) &gt;= 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B7C2D68F-C2A9-4F34-BC0E-46157710709A}" name="hasEconomicImpacts" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="12" xr3:uid="{B7C2D68F-C2A9-4F34-BC0E-46157710709A}" name="hasEconomicImpacts" dataDxfId="154" totalsRowDxfId="153">
       <calculatedColumnFormula array="1" xml:space="preserve"> OR( SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c0] &lt;&gt; 0, 1, 0) ) &gt;= 1,
       SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c1] &lt;&gt; 0, 1, 0) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="152" totalsRowDxfId="151">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="148" totalsRowDxfId="147">
       <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8447,34 +8420,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B311:L313" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B311:L313" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="145">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="144">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="143"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="137"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="136"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="139"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="136"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B346:D354" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B346:D354" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="132">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="131">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="129">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8483,66 +8456,66 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B318:F332" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B318:F332" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="127">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="126">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="126">
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="125">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="125"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="124"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B55:F86" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B55:F86" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="B55:F86" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B56:F86">
     <sortCondition ref="C56:C86"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="111" totalsRowDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B151:P215" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B151:P215" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="B151:P215" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B152:P215">
     <sortCondition ref="C152:C215"/>
     <sortCondition ref="D152:D215"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="107">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="104"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="101"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="99"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="96"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="95"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="94">
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="103"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="100"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="98"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="97"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="93">
       <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8551,24 +8524,24 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B220:J283" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B220:J283" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B220:J283" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B221:J267">
     <sortCondition ref="E226:E267"/>
     <sortCondition ref="C226:C267"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="90">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="86"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8944,13 +8917,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="56" t="s">
         <v>74</v>
       </c>
@@ -8958,7 +8931,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="78" t="s">
         <v>79</v>
       </c>
@@ -8966,7 +8939,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="79" t="s">
         <v>225</v>
       </c>
@@ -8974,7 +8947,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B12" s="78" t="s">
         <v>153</v>
       </c>
@@ -8982,79 +8955,79 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B25" s="79" t="s">
         <v>158</v>
       </c>
@@ -9062,55 +9035,55 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B34" s="78" t="s">
         <v>209</v>
       </c>
@@ -9118,88 +9091,88 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C36" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C38" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C40" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C42" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C44" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9227,18 +9200,18 @@
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="60.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="60.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -9246,10 +9219,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9290,7 +9263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9340,7 +9313,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9392,7 +9365,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9439,7 +9412,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9486,7 +9459,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9533,7 +9506,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9580,7 +9553,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9627,7 +9600,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9677,7 +9650,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9724,7 +9697,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
@@ -9771,7 +9744,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9818,7 +9791,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9865,7 +9838,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9912,7 +9885,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9977,26 +9950,26 @@
   </sheetPr>
   <dimension ref="A1:U409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E353" sqref="E353"/>
+      <selection pane="topRight" activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="2" customWidth="1"/>
-    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>264</v>
@@ -10021,7 +9994,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -10030,7 +10003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -10039,7 +10012,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -10048,7 +10021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -10057,7 +10030,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -10066,7 +10039,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -10075,7 +10048,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -10084,7 +10057,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -10093,7 +10066,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -10102,7 +10075,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -10111,7 +10084,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -10120,7 +10093,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -10129,7 +10102,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -10138,7 +10111,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>263</v>
       </c>
@@ -10152,7 +10125,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>72</v>
@@ -10177,7 +10150,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>114</v>
       </c>
@@ -10221,7 +10194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10282,7 +10255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10343,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10404,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10465,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10526,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10587,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10648,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10709,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10770,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10831,7 +10804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -10892,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10953,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -11014,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -11075,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -11136,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -11197,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11258,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -11319,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -11380,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -11441,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11502,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B42" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11563,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B43" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11624,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11685,7 +11658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11746,7 +11719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11807,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11868,7 +11841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11929,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11990,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12051,7 +12024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B51" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12112,7 +12085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>266</v>
@@ -12137,7 +12110,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
         <v>114</v>
       </c>
@@ -12154,7 +12127,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12172,7 +12145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12190,7 +12163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12208,7 +12181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12226,7 +12199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12244,7 +12217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12262,7 +12235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12280,7 +12253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12298,7 +12271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12316,7 +12289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12334,7 +12307,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12348,7 +12321,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12366,7 +12339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12384,7 +12357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12402,7 +12375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -12416,7 +12389,7 @@
       <c r="E70" s="80"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -12430,7 +12403,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12448,7 +12421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -12462,7 +12435,7 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -12476,7 +12449,7 @@
       <c r="E74" s="80"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -12490,7 +12463,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12508,7 +12481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12526,7 +12499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12544,7 +12517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12558,7 +12531,7 @@
       <c r="E79" s="80"/>
       <c r="F79" s="27"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12576,7 +12549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12594,7 +12567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12612,7 +12585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12630,7 +12603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12648,7 +12621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12666,7 +12639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12684,7 +12657,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>353</v>
@@ -12709,7 +12682,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>354</v>
       </c>
@@ -12723,7 +12696,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>355</v>
       </c>
@@ -12737,7 +12710,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>356</v>
       </c>
@@ -12751,7 +12724,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B92" s="43" t="s">
         <v>114</v>
       </c>
@@ -12783,7 +12756,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12803,11 +12776,7 @@
       <c r="G93" s="27">
         <v>1</v>
       </c>
-      <c r="H93" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H93" s="46"/>
       <c r="I93" s="34" cm="1">
         <f t="array" ref="I93" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -12817,7 +12786,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12837,11 +12806,7 @@
       <c r="G94" s="27">
         <v>0</v>
       </c>
-      <c r="H94" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H94" s="46"/>
       <c r="I94" s="34" cm="1">
         <f t="array" ref="I94" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -12851,7 +12816,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12871,11 +12836,7 @@
       <c r="G95" s="27">
         <v>0</v>
       </c>
-      <c r="H95" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H95" s="46"/>
       <c r="I95" s="34" cm="1">
         <f t="array" ref="I95" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -12885,7 +12846,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12905,11 +12866,7 @@
       <c r="G96" s="60">
         <v>1</v>
       </c>
-      <c r="H96" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H96" s="46"/>
       <c r="I96" s="34" cm="1">
         <f t="array" ref="I96" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -12919,7 +12876,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12939,11 +12896,7 @@
       <c r="G97" s="60">
         <v>0</v>
       </c>
-      <c r="H97" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H97" s="46"/>
       <c r="I97" s="34" cm="1">
         <f t="array" ref="I97" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -12953,7 +12906,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12973,11 +12926,7 @@
       <c r="G98" s="60">
         <v>0</v>
       </c>
-      <c r="H98" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H98" s="46"/>
       <c r="I98" s="34" cm="1">
         <f t="array" ref="I98" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -12987,7 +12936,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -13007,11 +12956,7 @@
       <c r="G99" s="60">
         <v>1</v>
       </c>
-      <c r="H99" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H99" s="46"/>
       <c r="I99" s="34" cm="1">
         <f t="array" ref="I99" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13021,7 +12966,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -13041,11 +12986,7 @@
       <c r="G100" s="60">
         <v>0</v>
       </c>
-      <c r="H100" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H100" s="46"/>
       <c r="I100" s="34" cm="1">
         <f t="array" ref="I100" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13055,7 +12996,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -13075,11 +13016,7 @@
       <c r="G101" s="60">
         <v>1</v>
       </c>
-      <c r="H101" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H101" s="46"/>
       <c r="I101" s="34" cm="1">
         <f t="array" ref="I101" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13089,7 +13026,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -13109,11 +13046,7 @@
       <c r="G102" s="60">
         <v>0</v>
       </c>
-      <c r="H102" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H102" s="46"/>
       <c r="I102" s="34" cm="1">
         <f t="array" ref="I102" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13123,7 +13056,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -13143,11 +13076,7 @@
       <c r="G103" s="60">
         <v>0</v>
       </c>
-      <c r="H103" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H103" s="46"/>
       <c r="I103" s="34" cm="1">
         <f t="array" ref="I103" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13157,7 +13086,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -13177,11 +13106,7 @@
       <c r="G104" s="60">
         <v>0</v>
       </c>
-      <c r="H104" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H104" s="46"/>
       <c r="I104" s="34" cm="1">
         <f t="array" ref="I104" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13191,7 +13116,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -13211,11 +13136,7 @@
       <c r="G105" s="27">
         <v>0</v>
       </c>
-      <c r="H105" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H105" s="46"/>
       <c r="I105" s="34" cm="1">
         <f t="array" ref="I105" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13225,7 +13146,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -13245,11 +13166,7 @@
       <c r="G106" s="27">
         <v>0</v>
       </c>
-      <c r="H106" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H106" s="46"/>
       <c r="I106" s="34" cm="1">
         <f t="array" ref="I106" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13259,7 +13176,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13279,11 +13196,7 @@
       <c r="G107" s="27">
         <v>1</v>
       </c>
-      <c r="H107" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H107" s="46"/>
       <c r="I107" s="34" cm="1">
         <f t="array" ref="I107" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13293,7 +13206,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13313,11 +13226,7 @@
       <c r="G108" s="27">
         <v>1</v>
       </c>
-      <c r="H108" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>elecSD_refCosts_nat</v>
-      </c>
+      <c r="H108" s="46"/>
       <c r="I108" s="34" cm="1">
         <f t="array" ref="I108" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13327,7 +13236,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13347,11 +13256,7 @@
       <c r="G109" s="27">
         <v>0</v>
       </c>
-      <c r="H109" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>elecTD_growthFactor_nat</v>
-      </c>
+      <c r="H109" s="46"/>
       <c r="I109" s="34" cm="1">
         <f t="array" ref="I109" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13361,7 +13266,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13381,11 +13286,7 @@
       <c r="G110" s="27">
         <v>0</v>
       </c>
-      <c r="H110" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>elecTD_growthFactor_nat</v>
-      </c>
+      <c r="H110" s="46"/>
       <c r="I110" s="34" cm="1">
         <f t="array" ref="I110" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13395,7 +13296,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13415,11 +13316,7 @@
       <c r="G111" s="27">
         <v>1</v>
       </c>
-      <c r="H111" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>elecTD_growthFactor_nat</v>
-      </c>
+      <c r="H111" s="46"/>
       <c r="I111" s="34" cm="1">
         <f t="array" ref="I111" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13429,7 +13326,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13449,11 +13346,7 @@
       <c r="G112" s="27">
         <v>0</v>
       </c>
-      <c r="H112" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H112" s="46"/>
       <c r="I112" s="34" cm="1">
         <f t="array" ref="I112" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13463,7 +13356,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13483,11 +13376,7 @@
       <c r="G113" s="27">
         <v>0</v>
       </c>
-      <c r="H113" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H113" s="46"/>
       <c r="I113" s="34" cm="1">
         <f t="array" ref="I113" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13497,7 +13386,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -13517,10 +13406,8 @@
       <c r="G114" s="60">
         <v>1</v>
       </c>
-      <c r="H114" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>forestryLoss_growthFactor_nat_SSP2</v>
+      <c r="H114" s="46" t="s">
+        <v>746</v>
       </c>
       <c r="I114" s="34" cm="1">
         <f t="array" ref="I114" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -13531,7 +13418,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -13551,10 +13438,8 @@
       <c r="G115" s="60">
         <v>0</v>
       </c>
-      <c r="H115" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>forestryLoss_growthFactor_nat_SSP5</v>
+      <c r="H115" s="46" t="s">
+        <v>747</v>
       </c>
       <c r="I115" s="34" cm="1">
         <f t="array" ref="I115" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -13565,7 +13450,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13585,11 +13470,7 @@
       <c r="G116" s="27">
         <v>0</v>
       </c>
-      <c r="H116" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H116" s="46"/>
       <c r="I116" s="34" cm="1">
         <f t="array" ref="I116" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13599,7 +13480,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13619,11 +13500,7 @@
       <c r="G117" s="27">
         <v>0</v>
       </c>
-      <c r="H117" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H117" s="46"/>
       <c r="I117" s="34" cm="1">
         <f t="array" ref="I117" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13633,7 +13510,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13653,11 +13530,7 @@
       <c r="G118" s="27">
         <v>1</v>
       </c>
-      <c r="H118" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H118" s="46"/>
       <c r="I118" s="34" cm="1">
         <f t="array" ref="I118" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13667,7 +13540,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13687,11 +13560,7 @@
       <c r="G119" s="27">
         <v>1</v>
       </c>
-      <c r="H119" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H119" s="46"/>
       <c r="I119" s="34" cm="1">
         <f t="array" ref="I119" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13701,7 +13570,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13721,11 +13590,7 @@
       <c r="G120" s="27">
         <v>1</v>
       </c>
-      <c r="H120" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H120" s="46"/>
       <c r="I120" s="34" cm="1">
         <f t="array" ref="I120" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13735,7 +13600,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -13755,11 +13620,7 @@
       <c r="G121" s="60">
         <v>1</v>
       </c>
-      <c r="H121" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H121" s="46"/>
       <c r="I121" s="34" cm="1">
         <f t="array" ref="I121" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13769,7 +13630,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -13789,11 +13650,7 @@
       <c r="G122" s="60">
         <v>0</v>
       </c>
-      <c r="H122" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H122" s="46"/>
       <c r="I122" s="34" cm="1">
         <f t="array" ref="I122" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13803,7 +13660,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -13823,11 +13680,7 @@
       <c r="G123" s="60">
         <v>1</v>
       </c>
-      <c r="H123" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H123" s="46"/>
       <c r="I123" s="34" cm="1">
         <f t="array" ref="I123" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13837,7 +13690,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13857,11 +13710,7 @@
       <c r="G124" s="60">
         <v>1</v>
       </c>
-      <c r="H124" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H124" s="46"/>
       <c r="I124" s="34" cm="1">
         <f t="array" ref="I124" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13871,7 +13720,7 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -13891,11 +13740,7 @@
       <c r="G125" s="60">
         <v>0</v>
       </c>
-      <c r="H125" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H125" s="46"/>
       <c r="I125" s="34" cm="1">
         <f t="array" ref="I125" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13905,7 +13750,7 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -13925,11 +13770,7 @@
       <c r="G126" s="60">
         <v>1</v>
       </c>
-      <c r="H126" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H126" s="46"/>
       <c r="I126" s="34" cm="1">
         <f t="array" ref="I126" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13939,7 +13780,7 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -13959,11 +13800,7 @@
       <c r="G127" s="60">
         <v>0</v>
       </c>
-      <c r="H127" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H127" s="46"/>
       <c r="I127" s="34" cm="1">
         <f t="array" ref="I127" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13973,7 +13810,7 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -13993,11 +13830,7 @@
       <c r="G128" s="60">
         <v>0</v>
       </c>
-      <c r="H128" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H128" s="46"/>
       <c r="I128" s="34" cm="1">
         <f t="array" ref="I128" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14007,7 +13840,7 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -14027,11 +13860,7 @@
       <c r="G129" s="60">
         <v>0</v>
       </c>
-      <c r="H129" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H129" s="46"/>
       <c r="I129" s="34" cm="1">
         <f t="array" ref="I129" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14041,7 +13870,7 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -14061,11 +13890,7 @@
       <c r="G130" s="60">
         <v>0</v>
       </c>
-      <c r="H130" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H130" s="46"/>
       <c r="I130" s="34" cm="1">
         <f t="array" ref="I130" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14075,7 +13900,7 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -14095,11 +13920,7 @@
       <c r="G131" s="60">
         <v>0</v>
       </c>
-      <c r="H131" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H131" s="46"/>
       <c r="I131" s="34" cm="1">
         <f t="array" ref="I131" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14109,7 +13930,7 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -14129,11 +13950,7 @@
       <c r="G132" s="60">
         <v>1</v>
       </c>
-      <c r="H132" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H132" s="46"/>
       <c r="I132" s="34" cm="1">
         <f t="array" ref="I132" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14143,7 +13960,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -14163,11 +13980,7 @@
       <c r="G133" s="60">
         <v>2</v>
       </c>
-      <c r="H133" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>MH_popDemoAdj_nat</v>
-      </c>
+      <c r="H133" s="46"/>
       <c r="I133" s="34" cm="1">
         <f t="array" ref="I133" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14177,7 +13990,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -14197,11 +14010,7 @@
       <c r="G134" s="27">
         <v>0</v>
       </c>
-      <c r="H134" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>rail_growth_factor_nat</v>
-      </c>
+      <c r="H134" s="46"/>
       <c r="I134" s="34" cm="1">
         <f t="array" ref="I134" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14211,7 +14020,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -14231,11 +14040,7 @@
       <c r="G135" s="27">
         <v>0</v>
       </c>
-      <c r="H135" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>rail_growth_factor_nat</v>
-      </c>
+      <c r="H135" s="46"/>
       <c r="I135" s="34" cm="1">
         <f t="array" ref="I135" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14245,7 +14050,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -14265,11 +14070,7 @@
       <c r="G136" s="27">
         <v>1</v>
       </c>
-      <c r="H136" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>rail_growth_factor_nat</v>
-      </c>
+      <c r="H136" s="46"/>
       <c r="I136" s="34" cm="1">
         <f t="array" ref="I136" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14279,7 +14080,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14299,10 +14100,8 @@
       <c r="G137" s="27">
         <v>0</v>
       </c>
-      <c r="H137" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>road_miles_and_pop_nat_NoAdapt</v>
+      <c r="H137" s="46" t="s">
+        <v>748</v>
       </c>
       <c r="I137" s="34" cm="1">
         <f t="array" ref="I137" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -14313,7 +14112,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14333,10 +14132,8 @@
       <c r="G138" s="27">
         <v>0</v>
       </c>
-      <c r="H138" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>road_miles_and_pop_nat_Proactive</v>
+      <c r="H138" s="46" t="s">
+        <v>749</v>
       </c>
       <c r="I138" s="34" cm="1">
         <f t="array" ref="I138" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -14347,7 +14144,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14367,10 +14164,8 @@
       <c r="G139" s="27">
         <v>1</v>
       </c>
-      <c r="H139" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>road_miles_and_pop_nat_Reactive</v>
+      <c r="H139" s="46" t="s">
+        <v>750</v>
       </c>
       <c r="I139" s="34" cm="1">
         <f t="array" ref="I139" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -14381,7 +14176,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14401,11 +14196,7 @@
       <c r="G140" s="27">
         <v>1</v>
       </c>
-      <c r="H140" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H140" s="46"/>
       <c r="I140" s="34" cm="1">
         <f t="array" ref="I140" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14415,7 +14206,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14435,11 +14226,7 @@
       <c r="G141" s="27">
         <v>1</v>
       </c>
-      <c r="H141" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H141" s="92"/>
       <c r="I141" s="34" cm="1">
         <f t="array" ref="I141" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14449,7 +14236,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14469,11 +14256,7 @@
       <c r="G142" s="27">
         <v>1</v>
       </c>
-      <c r="H142" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>vfever_prob_wages_nat</v>
-      </c>
+      <c r="H142" s="46"/>
       <c r="I142" s="34" cm="1">
         <f t="array" ref="I142" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14483,7 +14266,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14503,11 +14286,7 @@
       <c r="G143" s="60">
         <v>1</v>
       </c>
-      <c r="H143" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H143" s="46"/>
       <c r="I143" s="34" cm="1">
         <f t="array" ref="I143" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14517,7 +14296,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B144" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14537,11 +14316,7 @@
       <c r="G144" s="27">
         <v>1</v>
       </c>
-      <c r="H144" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H144" s="46"/>
       <c r="I144" s="34" cm="1">
         <f t="array" ref="I144" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14551,7 +14326,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B145" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14571,11 +14346,7 @@
       <c r="G145" s="27">
         <v>1</v>
       </c>
-      <c r="H145" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H145" s="46"/>
       <c r="I145" s="34" cm="1">
         <f t="array" ref="I145" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14585,7 +14356,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B146" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -14605,11 +14376,7 @@
       <c r="G146" s="60">
         <v>1</v>
       </c>
-      <c r="H146" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H146" s="46"/>
       <c r="I146" s="34" cm="1">
         <f t="array" ref="I146" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14619,7 +14386,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B147" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -14639,11 +14406,7 @@
       <c r="G147" s="27">
         <v>0</v>
       </c>
-      <c r="H147" s="46" t="str">
-        <f xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
-   IF( OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</f>
-        <v>none</v>
-      </c>
+      <c r="H147" s="46"/>
       <c r="I147" s="34" cm="1">
         <f t="array" ref="I147" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14653,7 +14416,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
         <v>37</v>
@@ -14678,12 +14441,12 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B151" s="29" t="s">
         <v>114</v>
       </c>
@@ -14730,7 +14493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14779,7 +14542,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14828,7 +14591,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14852,7 +14615,7 @@
         <v>84</v>
       </c>
       <c r="I154" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J154" s="32" t="s">
         <v>683</v>
@@ -14877,7 +14640,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14901,7 +14664,7 @@
         <v>84</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J155" s="32" t="s">
         <v>684</v>
@@ -14926,7 +14689,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14950,7 +14713,7 @@
         <v>84</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J156" s="32" t="s">
         <v>685</v>
@@ -14975,7 +14738,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14999,7 +14762,7 @@
         <v>84</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J157" s="32" t="s">
         <v>686</v>
@@ -15024,7 +14787,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -15048,7 +14811,7 @@
         <v>84</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J158" s="32" t="s">
         <v>687</v>
@@ -15073,7 +14836,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -15094,7 +14857,7 @@
         <v>532</v>
       </c>
       <c r="H159" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I159" s="28" t="s">
         <v>88</v>
@@ -15122,7 +14885,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -15171,7 +14934,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -15220,7 +14983,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -15269,7 +15032,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -15318,7 +15081,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15367,7 +15130,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15416,7 +15179,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15465,7 +15228,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15514,7 +15277,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15563,7 +15326,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15612,7 +15375,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15661,7 +15424,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15685,7 +15448,7 @@
         <v>84</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J171" s="28" t="s">
         <v>88</v>
@@ -15710,7 +15473,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15734,7 +15497,7 @@
         <v>84</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J172" s="28" t="s">
         <v>88</v>
@@ -15759,7 +15522,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -15786,7 +15549,7 @@
         <v>88</v>
       </c>
       <c r="J173" s="28" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="K173" s="28" t="s">
         <v>89</v>
@@ -15808,7 +15571,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15857,7 +15620,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15906,7 +15669,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15927,7 +15690,7 @@
         <v>533</v>
       </c>
       <c r="H176" s="28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I176" s="28" t="s">
         <v>88</v>
@@ -15955,7 +15718,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -15979,7 +15742,7 @@
         <v>84</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>88</v>
@@ -16004,7 +15767,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -16028,7 +15791,7 @@
         <v>84</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>88</v>
@@ -16053,7 +15816,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -16077,7 +15840,7 @@
         <v>84</v>
       </c>
       <c r="I179" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>88</v>
@@ -16102,7 +15865,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -16151,7 +15914,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -16200,7 +15963,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -16249,7 +16012,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -16298,7 +16061,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -16347,7 +16110,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -16396,7 +16159,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -16420,7 +16183,7 @@
         <v>84</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J186" s="28" t="s">
         <v>88</v>
@@ -16445,7 +16208,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -16469,7 +16232,7 @@
         <v>84</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>88</v>
@@ -16494,7 +16257,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -16518,13 +16281,13 @@
         <v>84</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J188" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K188" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L188" s="28" t="s">
         <v>88</v>
@@ -16543,7 +16306,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -16567,7 +16330,7 @@
         <v>84</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J189" s="28" t="s">
         <v>88</v>
@@ -16592,7 +16355,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -16616,7 +16379,7 @@
         <v>84</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J190" s="28" t="s">
         <v>88</v>
@@ -16641,7 +16404,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16665,10 +16428,10 @@
         <v>84</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K191" s="28" t="s">
         <v>119</v>
@@ -16690,7 +16453,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16711,7 +16474,7 @@
         <v>52</v>
       </c>
       <c r="H192" s="28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I192" s="25" t="s">
         <v>88</v>
@@ -16739,7 +16502,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16760,13 +16523,13 @@
         <v>126</v>
       </c>
       <c r="H193" s="28" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I193" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J193" s="25" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="K193" s="28" t="s">
         <v>88</v>
@@ -16788,7 +16551,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16812,7 +16575,7 @@
         <v>84</v>
       </c>
       <c r="I194" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J194" s="28" t="s">
         <v>88</v>
@@ -16837,7 +16600,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16861,7 +16624,7 @@
         <v>84</v>
       </c>
       <c r="I195" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J195" s="28" t="s">
         <v>88</v>
@@ -16886,7 +16649,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16910,7 +16673,7 @@
         <v>84</v>
       </c>
       <c r="I196" s="32" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="J196" s="28" t="s">
         <v>88</v>
@@ -16935,7 +16698,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="197" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16959,7 +16722,7 @@
         <v>84</v>
       </c>
       <c r="I197" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>88</v>
@@ -16984,7 +16747,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -17008,7 +16771,7 @@
         <v>84</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>88</v>
@@ -17033,7 +16796,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -17057,7 +16820,7 @@
         <v>84</v>
       </c>
       <c r="I199" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J199" s="32" t="s">
         <v>691</v>
@@ -17082,7 +16845,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="200" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B200" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -17132,7 +16895,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -17156,10 +16919,10 @@
         <v>84</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K201" s="28" t="s">
         <v>696</v>
@@ -17181,7 +16944,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -17205,10 +16968,10 @@
         <v>84</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K202" s="28" t="s">
         <v>707</v>
@@ -17230,7 +16993,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -17254,10 +17017,10 @@
         <v>84</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K203" s="28" t="s">
         <v>119</v>
@@ -17279,7 +17042,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -17328,7 +17091,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -17377,7 +17140,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -17426,7 +17189,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -17475,7 +17238,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B208" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -17524,7 +17287,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B209" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -17573,7 +17336,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B210" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -17603,7 +17366,7 @@
         <v>88</v>
       </c>
       <c r="K210" s="28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L210" s="28" t="s">
         <v>88</v>
@@ -17622,7 +17385,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B211" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -17646,13 +17409,13 @@
         <v>84</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J211" s="32" t="s">
         <v>692</v>
       </c>
       <c r="K211" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L211" s="28" t="s">
         <v>89</v>
@@ -17671,7 +17434,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B212" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -17720,7 +17483,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B213" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -17744,7 +17507,7 @@
         <v>84</v>
       </c>
       <c r="I213" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J213" s="28" t="s">
         <v>88</v>
@@ -17769,7 +17532,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B214" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -17793,7 +17556,7 @@
         <v>84</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J214" s="28" t="s">
         <v>88</v>
@@ -17818,7 +17581,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B215" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -17842,7 +17605,7 @@
         <v>84</v>
       </c>
       <c r="I215" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J215" s="28" t="s">
         <v>88</v>
@@ -17867,7 +17630,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" s="16"/>
       <c r="B218" s="17" t="s">
         <v>327</v>
@@ -17892,7 +17655,7 @@
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
     </row>
-    <row r="220" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B220" s="29" t="s">
         <v>114</v>
       </c>
@@ -17924,7 +17687,7 @@
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -17957,7 +17720,7 @@
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
     </row>
-    <row r="222" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -17990,7 +17753,7 @@
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
     </row>
-    <row r="223" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -18023,7 +17786,7 @@
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
     </row>
-    <row r="224" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -18056,7 +17819,7 @@
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
     </row>
-    <row r="225" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -18089,7 +17852,7 @@
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
     </row>
-    <row r="226" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B226" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -18122,7 +17885,7 @@
       <c r="Q226"/>
       <c r="R226"/>
     </row>
-    <row r="227" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -18153,13 +17916,13 @@
       <c r="Q227"/>
       <c r="R227"/>
     </row>
-    <row r="228" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>8</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>627</v>
@@ -18184,13 +17947,13 @@
       <c r="Q228"/>
       <c r="R228"/>
     </row>
-    <row r="229" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B229" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>628</v>
@@ -18215,7 +17978,7 @@
       <c r="Q229"/>
       <c r="R229"/>
     </row>
-    <row r="230" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -18248,7 +18011,7 @@
       <c r="Q230"/>
       <c r="R230"/>
     </row>
-    <row r="231" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -18279,13 +18042,13 @@
       <c r="Q231"/>
       <c r="R231"/>
     </row>
-    <row r="232" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B232" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>538</v>
@@ -18312,13 +18075,13 @@
       <c r="Q232"/>
       <c r="R232"/>
     </row>
-    <row r="233" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B233" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>539</v>
@@ -18345,13 +18108,13 @@
       <c r="Q233"/>
       <c r="R233"/>
     </row>
-    <row r="234" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>540</v>
@@ -18378,7 +18141,7 @@
       <c r="Q234"/>
       <c r="R234"/>
     </row>
-    <row r="235" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -18411,7 +18174,7 @@
       <c r="Q235"/>
       <c r="R235"/>
     </row>
-    <row r="236" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -18444,7 +18207,7 @@
       <c r="Q236"/>
       <c r="R236"/>
     </row>
-    <row r="237" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -18475,7 +18238,7 @@
       <c r="Q237"/>
       <c r="R237"/>
     </row>
-    <row r="238" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -18506,7 +18269,7 @@
       <c r="Q238"/>
       <c r="R238"/>
     </row>
-    <row r="239" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -18537,7 +18300,7 @@
       <c r="Q239"/>
       <c r="R239"/>
     </row>
-    <row r="240" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B240" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -18568,7 +18331,7 @@
       <c r="Q240"/>
       <c r="R240"/>
     </row>
-    <row r="241" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B241" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -18599,7 +18362,7 @@
       <c r="Q241"/>
       <c r="R241"/>
     </row>
-    <row r="242" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B242" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -18630,7 +18393,7 @@
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -18661,7 +18424,7 @@
       <c r="Q243"/>
       <c r="R243"/>
     </row>
-    <row r="244" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B244" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -18692,7 +18455,7 @@
       <c r="Q244"/>
       <c r="R244"/>
     </row>
-    <row r="245" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B245" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -18720,7 +18483,7 @@
       </c>
       <c r="J245" s="65"/>
     </row>
-    <row r="246" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -18748,7 +18511,7 @@
       </c>
       <c r="J246" s="65"/>
     </row>
-    <row r="247" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -18776,7 +18539,7 @@
       </c>
       <c r="J247" s="65"/>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -18806,7 +18569,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B249" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -18832,7 +18595,7 @@
       <c r="I249" s="48"/>
       <c r="J249" s="65"/>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -18860,7 +18623,7 @@
       </c>
       <c r="J250" s="65"/>
     </row>
-    <row r="251" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B251" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -18888,7 +18651,7 @@
       </c>
       <c r="J251" s="65"/>
     </row>
-    <row r="252" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B252" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -18916,7 +18679,7 @@
       </c>
       <c r="J252" s="65"/>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B253" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -18942,13 +18705,13 @@
       <c r="I253" s="48"/>
       <c r="J253" s="65"/>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B254" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>709</v>
+        <v>119</v>
       </c>
       <c r="D254" s="26" t="s">
         <v>16</v>
@@ -18970,13 +18733,13 @@
       </c>
       <c r="J254" s="65"/>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B255" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D255" s="26" t="s">
         <v>617</v>
@@ -18998,13 +18761,13 @@
       </c>
       <c r="J255" s="65"/>
     </row>
-    <row r="256" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B256" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D256" s="26" t="s">
         <v>667</v>
@@ -19026,13 +18789,13 @@
       </c>
       <c r="J256" s="65"/>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B257" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>105</v>
@@ -19054,7 +18817,7 @@
       </c>
       <c r="J257" s="65"/>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B258" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -19084,13 +18847,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B259" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D259" s="26" t="s">
         <v>238</v>
@@ -19112,13 +18875,13 @@
       </c>
       <c r="J259" s="65"/>
     </row>
-    <row r="260" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B260" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D260" s="26" t="s">
         <v>237</v>
@@ -19140,13 +18903,13 @@
       </c>
       <c r="J260" s="65"/>
     </row>
-    <row r="261" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B261" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>41</v>
       </c>
       <c r="C261" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D261" s="26" t="s">
         <v>239</v>
@@ -19168,13 +18931,13 @@
       </c>
       <c r="J261" s="65"/>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B262" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>42</v>
       </c>
       <c r="C262" s="32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D262" s="26" t="s">
         <v>255</v>
@@ -19196,13 +18959,13 @@
       </c>
       <c r="J262" s="65"/>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B263" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>43</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D263" s="26" t="s">
         <v>95</v>
@@ -19224,7 +18987,7 @@
       </c>
       <c r="J263" s="65"/>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B264" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -19254,13 +19017,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B265" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>45</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D265" s="26" t="s">
         <v>52</v>
@@ -19282,13 +19045,13 @@
       </c>
       <c r="J265" s="65"/>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B266" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>46</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D266" s="26" t="s">
         <v>48</v>
@@ -19310,13 +19073,13 @@
       </c>
       <c r="J266" s="65"/>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B267" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>47</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D267" s="26" t="s">
         <v>126</v>
@@ -19338,16 +19101,16 @@
       </c>
       <c r="J267" s="65"/>
     </row>
-    <row r="268" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B268" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>48</v>
       </c>
       <c r="C268" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="D268" s="26" t="s">
         <v>727</v>
-      </c>
-      <c r="D268" s="26" t="s">
-        <v>728</v>
       </c>
       <c r="E268" s="80" t="s">
         <v>157</v>
@@ -19366,16 +19129,16 @@
       </c>
       <c r="J268" s="65"/>
     </row>
-    <row r="269" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:10" ht="42" x14ac:dyDescent="0.3">
       <c r="B269" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E269" s="80" t="s">
         <v>157</v>
@@ -19394,13 +19157,13 @@
       </c>
       <c r="J269" s="65"/>
     </row>
-    <row r="270" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B270" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>50</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D270" s="26" t="s">
         <v>670</v>
@@ -19422,13 +19185,13 @@
       </c>
       <c r="J270" s="65"/>
     </row>
-    <row r="271" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B271" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>51</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D271" s="26" t="s">
         <v>671</v>
@@ -19450,16 +19213,16 @@
       </c>
       <c r="J271" s="65"/>
     </row>
-    <row r="272" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:10" ht="42" x14ac:dyDescent="0.3">
       <c r="B272" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>52</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E272" s="80" t="s">
         <v>157</v>
@@ -19478,16 +19241,16 @@
       </c>
       <c r="J272" s="65"/>
     </row>
-    <row r="273" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="42" x14ac:dyDescent="0.3">
       <c r="B273" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>53</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E273" s="80" t="s">
         <v>157</v>
@@ -19506,16 +19269,16 @@
       </c>
       <c r="J273" s="65"/>
     </row>
-    <row r="274" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B274" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>54</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E274" s="80" t="s">
         <v>157</v>
@@ -19534,13 +19297,13 @@
       </c>
       <c r="J274" s="65"/>
     </row>
-    <row r="275" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B275" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>55</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D275" s="26" t="s">
         <v>641</v>
@@ -19562,16 +19325,16 @@
       </c>
       <c r="J275" s="65"/>
     </row>
-    <row r="276" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B276" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>56</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E276" s="80" t="s">
         <v>157</v>
@@ -19590,16 +19353,16 @@
       </c>
       <c r="J276" s="65"/>
     </row>
-    <row r="277" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B277" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>57</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E277" s="80" t="s">
         <v>157</v>
@@ -19618,16 +19381,16 @@
       </c>
       <c r="J277" s="65"/>
     </row>
-    <row r="278" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B278" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>58</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E278" s="80" t="s">
         <v>157</v>
@@ -19646,16 +19409,16 @@
       </c>
       <c r="J278" s="65"/>
     </row>
-    <row r="279" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B279" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>59</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E279" s="80" t="s">
         <v>157</v>
@@ -19674,16 +19437,16 @@
       </c>
       <c r="J279" s="65"/>
     </row>
-    <row r="280" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B280" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>60</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E280" s="80" t="s">
         <v>157</v>
@@ -19702,13 +19465,13 @@
       </c>
       <c r="J280" s="65"/>
     </row>
-    <row r="281" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B281" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>61</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D281" s="26" t="s">
         <v>618</v>
@@ -19730,13 +19493,13 @@
       </c>
       <c r="J281" s="65"/>
     </row>
-    <row r="282" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B282" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>62</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D282" s="26" t="s">
         <v>409</v>
@@ -19756,13 +19519,13 @@
       <c r="I282" s="48"/>
       <c r="J282" s="65"/>
     </row>
-    <row r="283" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B283" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>63</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D283" s="26" t="s">
         <v>410</v>
@@ -19782,7 +19545,7 @@
       <c r="I283" s="48"/>
       <c r="J283" s="65"/>
     </row>
-    <row r="286" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A286" s="16"/>
       <c r="B286" s="17" t="s">
         <v>267</v>
@@ -19807,7 +19570,7 @@
       <c r="T286" s="17"/>
       <c r="U286" s="17"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B288" s="29" t="s">
         <v>114</v>
       </c>
@@ -19821,7 +19584,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B289" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19836,7 +19599,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B290" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19851,7 +19614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B291" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19866,7 +19629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16"/>
       <c r="B294" s="17" t="s">
         <v>268</v>
@@ -19891,7 +19654,7 @@
       <c r="T294" s="17"/>
       <c r="U294" s="17"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B296" s="29" t="s">
         <v>114</v>
       </c>
@@ -19902,7 +19665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19915,7 +19678,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19928,7 +19691,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19940,7 +19703,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="302" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A302" s="16"/>
       <c r="B302" s="17" t="s">
         <v>517</v>
@@ -19965,12 +19728,12 @@
       <c r="T302" s="17"/>
       <c r="U302" s="17"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B305" s="43" t="s">
         <v>114</v>
       </c>
@@ -19999,7 +19762,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B306" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20029,7 +19792,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B307" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20059,7 +19822,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="309" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A309" s="16"/>
       <c r="B309" s="17" t="s">
         <v>265</v>
@@ -20084,7 +19847,7 @@
       <c r="T309" s="17"/>
       <c r="U309" s="17"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B311" s="37" t="s">
         <v>114</v>
       </c>
@@ -20119,7 +19882,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B312" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20155,7 +19918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20191,7 +19954,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A316" s="16"/>
       <c r="B316" s="17" t="s">
         <v>542</v>
@@ -20216,7 +19979,7 @@
       <c r="T316" s="17"/>
       <c r="U316" s="17"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B318" s="43" t="s">
         <v>114</v>
       </c>
@@ -20233,7 +19996,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B319" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20252,7 +20015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B320" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20271,7 +20034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B321" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20290,7 +20053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B322" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20309,7 +20072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B323" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20328,7 +20091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B324" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20347,7 +20110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B325" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20366,7 +20129,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B326" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20385,7 +20148,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B327" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20404,7 +20167,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B328" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20423,7 +20186,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B329" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20442,7 +20205,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B330" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20461,7 +20224,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B331" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20480,7 +20243,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B332" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -20499,7 +20262,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A335" s="16"/>
       <c r="B335" s="17" t="s">
         <v>281</v>
@@ -20524,7 +20287,7 @@
       <c r="T335" s="17"/>
       <c r="U335" s="17"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B337" s="29" t="s">
         <v>114</v>
       </c>
@@ -20553,7 +20316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B338" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20581,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B339" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20609,7 +20372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B340" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20640,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B341" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20671,7 +20434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A344" s="16"/>
       <c r="B344" s="17" t="s">
         <v>69</v>
@@ -20696,7 +20459,7 @@
       <c r="T344" s="17"/>
       <c r="U344" s="17"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B346" s="43" t="s">
         <v>114</v>
       </c>
@@ -20708,7 +20471,7 @@
       </c>
       <c r="E346" s="2"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B347" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20722,7 +20485,7 @@
       </c>
       <c r="E347" s="2"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B348" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20736,7 +20499,7 @@
       </c>
       <c r="E348" s="2"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B349" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20750,7 +20513,7 @@
       </c>
       <c r="E349" s="2"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B350" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20764,7 +20527,7 @@
       </c>
       <c r="E350" s="2"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B351" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20778,7 +20541,7 @@
       </c>
       <c r="E351" s="2"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B352" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20792,8 +20555,8 @@
       </c>
       <c r="E352" s="2"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B353" s="93">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B353" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
@@ -20806,13 +20569,13 @@
       </c>
       <c r="E353" s="2"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B354" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>8</v>
       </c>
       <c r="C354" s="44" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D354" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
@@ -20820,7 +20583,7 @@
       </c>
       <c r="E354" s="2"/>
     </row>
-    <row r="357" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A357" s="16"/>
       <c r="B357" s="17" t="s">
         <v>412</v>
@@ -20845,7 +20608,7 @@
       <c r="T357" s="17"/>
       <c r="U357" s="17"/>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">
         <v>114</v>
       </c>
@@ -20862,7 +20625,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20880,7 +20643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20898,7 +20661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20916,7 +20679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20934,7 +20697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20952,7 +20715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20970,7 +20733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20988,7 +20751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21006,7 +20769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21024,7 +20787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21042,7 +20805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21060,7 +20823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -21078,7 +20841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -21096,7 +20859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -21114,7 +20877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -21132,7 +20895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -21150,7 +20913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -21168,7 +20931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -21186,7 +20949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -21204,7 +20967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -21222,7 +20985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -21240,7 +21003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -21258,7 +21021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -21276,7 +21039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -21294,7 +21057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -21312,7 +21075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -21330,7 +21093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -21348,7 +21111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -21366,7 +21129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -21384,7 +21147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -21402,7 +21165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -21420,7 +21183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -21438,7 +21201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -21456,7 +21219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -21474,7 +21237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -21492,7 +21255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -21510,7 +21273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -21528,7 +21291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -21546,7 +21309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -21564,7 +21327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -21582,7 +21345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -21600,7 +21363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -21618,7 +21381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -21636,7 +21399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -21654,7 +21417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -21672,7 +21435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -21690,7 +21453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -21708,7 +21471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -21726,7 +21489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -21744,19 +21507,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B409" s="92">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B409" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>50</v>
       </c>
       <c r="C409" s="82" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D409" s="82" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E409" s="82" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F409" s="83">
         <v>0</v>
@@ -21830,19 +21593,19 @@
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="61" t="s">
         <v>114</v>
       </c>
@@ -21859,7 +21622,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21877,7 +21640,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21895,12 +21658,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>114</v>
       </c>
@@ -21914,7 +21677,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21929,7 +21692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21944,7 +21707,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21959,7 +21722,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21974,7 +21737,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21989,7 +21752,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -22024,15 +21787,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -22040,10 +21803,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
@@ -22057,7 +21820,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -22072,7 +21835,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -22087,7 +21850,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -22102,7 +21865,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -22117,7 +21880,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -22132,7 +21895,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -22147,7 +21910,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -22162,7 +21925,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -22177,7 +21940,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -22192,7 +21955,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -22207,7 +21970,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -22222,7 +21985,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -22237,7 +22000,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22252,7 +22015,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22267,7 +22030,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22282,7 +22045,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22297,7 +22060,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22312,7 +22075,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22327,7 +22090,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22342,7 +22105,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22357,7 +22120,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22372,7 +22135,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22387,7 +22150,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22402,7 +22165,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22417,7 +22180,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22452,9 +22215,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -22483,7 +22246,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -22513,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -22543,7 +22306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -22573,7 +22336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -22603,7 +22366,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -22633,7 +22396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -22663,7 +22426,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -22693,7 +22456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -22723,7 +22486,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -22753,7 +22516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -22783,7 +22546,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -22813,7 +22576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -22843,7 +22606,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22873,7 +22636,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22903,7 +22666,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22933,7 +22696,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22963,7 +22726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22993,7 +22756,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -23023,7 +22786,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -23053,7 +22816,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -23083,7 +22846,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -23113,7 +22876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -23143,7 +22906,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -23173,7 +22936,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -23203,7 +22966,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -23233,7 +22996,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -23263,7 +23026,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -23293,7 +23056,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -23323,7 +23086,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -23353,7 +23116,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -23383,7 +23146,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -23413,7 +23176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -23443,7 +23206,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -23473,7 +23236,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -23503,7 +23266,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -23533,7 +23296,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -23563,7 +23326,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -23593,7 +23356,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -23623,7 +23386,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -23653,7 +23416,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -23683,7 +23446,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -23713,7 +23476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -23743,7 +23506,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -23773,7 +23536,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -23803,7 +23566,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -23833,7 +23596,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -23863,7 +23626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -23893,7 +23656,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -23923,7 +23686,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -23953,7 +23716,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -23983,7 +23746,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -24013,7 +23776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -24043,7 +23806,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -24073,7 +23836,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -24103,7 +23866,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -24133,7 +23896,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -24163,7 +23926,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -24193,7 +23956,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -24223,7 +23986,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -24253,7 +24016,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -24283,7 +24046,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -24313,7 +24076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -24343,7 +24106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -24373,7 +24136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -24403,7 +24166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>65</v>
@@ -24433,7 +24196,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>66</v>
@@ -24463,7 +24226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>67</v>
@@ -24493,7 +24256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>68</v>
@@ -24523,7 +24286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>69</v>
@@ -24553,7 +24316,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>70</v>
@@ -24583,7 +24346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>71</v>
@@ -24613,7 +24376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>72</v>
@@ -24643,7 +24406,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>73</v>
@@ -24673,7 +24436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>74</v>
@@ -24703,7 +24466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>75</v>
@@ -24733,7 +24496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>76</v>
@@ -24763,7 +24526,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>77</v>
@@ -24793,7 +24556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>78</v>
@@ -24823,7 +24586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>79</v>
@@ -24853,7 +24616,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>80</v>
@@ -24883,7 +24646,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>81</v>
@@ -24913,7 +24676,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>82</v>
@@ -24943,7 +24706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>83</v>
@@ -24973,7 +24736,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>84</v>
@@ -25003,7 +24766,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>85</v>
@@ -25033,7 +24796,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>86</v>
@@ -25063,7 +24826,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>87</v>
@@ -25093,7 +24856,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>88</v>
@@ -25123,7 +24886,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>89</v>
@@ -25153,7 +24916,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>90</v>
@@ -25183,7 +24946,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>91</v>
@@ -25213,7 +24976,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>92</v>
@@ -25243,7 +25006,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>93</v>
@@ -25273,7 +25036,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>94</v>
@@ -25303,7 +25066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>95</v>
@@ -25333,7 +25096,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>96</v>
@@ -25363,7 +25126,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>97</v>
@@ -25393,7 +25156,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>98</v>
@@ -25423,7 +25186,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>99</v>
@@ -25453,7 +25216,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>100</v>
@@ -25483,7 +25246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>101</v>

--- a/inst/extdata/fredi/national/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/national/FrEDI_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EA7C4-51E9-4F34-ABA8-8327819765D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5D5518-6C5F-4571-9EB9-0CBE0E105093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="754">
   <si>
     <t>CanESM2</t>
   </si>
@@ -3404,7 +3404,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3653,9 +3653,6 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1" xfId="34" builtinId="30" customBuiltin="1"/>
@@ -3751,26 +3748,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4715,6 +4692,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -8170,11 +8167,11 @@
     <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="68" totalsRowDxfId="67"/>
     <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="66" totalsRowDxfId="65"/>
     <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF(OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8183,70 +8180,70 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B288:E291" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B288:E291" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B337:J341" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B337:J341" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B359:F409" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B359:F409" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="B359:F409" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B305:J307" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B305:J307" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{6AB21964-D6DD-4BA3-BDFD-E851D5F956FF}" name="impactType"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8256,10 +8253,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -8268,23 +8265,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -8292,12 +8289,12 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8307,17 +8304,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8917,13 +8914,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>74</v>
       </c>
@@ -8931,7 +8928,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="78" t="s">
         <v>79</v>
       </c>
@@ -8939,7 +8936,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
         <v>225</v>
       </c>
@@ -8947,7 +8944,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
         <v>153</v>
       </c>
@@ -8955,79 +8952,79 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B25" s="79" t="s">
         <v>158</v>
       </c>
@@ -9035,55 +9032,55 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
         <v>209</v>
       </c>
@@ -9091,88 +9088,88 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9200,18 +9197,18 @@
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" customWidth="1"/>
-    <col min="16" max="16" width="60.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="60.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -9219,10 +9216,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9263,7 +9260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9313,7 +9310,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9365,7 +9362,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9412,7 +9409,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9459,7 +9456,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9506,7 +9503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9553,7 +9550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9600,7 +9597,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9650,7 +9647,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9697,7 +9694,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
@@ -9744,7 +9741,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9791,7 +9788,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9838,7 +9835,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9885,7 +9882,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9950,26 +9947,26 @@
   </sheetPr>
   <dimension ref="A1:U409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K134" sqref="K134"/>
+      <selection pane="topRight" activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="2"/>
+    <col min="23" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>264</v>
@@ -9994,7 +9991,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -10003,7 +10000,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -10012,7 +10009,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -10021,7 +10018,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -10030,7 +10027,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -10039,7 +10036,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -10048,7 +10045,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -10057,7 +10054,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -10066,7 +10063,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -10075,7 +10072,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -10084,7 +10081,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -10093,7 +10090,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -10102,7 +10099,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -10111,7 +10108,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C16" s="53" t="s">
         <v>263</v>
       </c>
@@ -10125,7 +10122,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>72</v>
@@ -10150,7 +10147,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>114</v>
       </c>
@@ -10194,7 +10191,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10255,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10316,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10377,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10438,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10499,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10560,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10621,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10682,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10743,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10804,7 +10801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -10865,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10926,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -10987,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -11048,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -11109,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -11170,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11231,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -11292,7 +11289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -11353,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="42" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -11414,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11475,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B42" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11536,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B43" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11597,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11658,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11719,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B46" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11780,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B47" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11841,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11902,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11963,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12024,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B51" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12085,7 +12082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>266</v>
@@ -12110,7 +12107,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B55" s="29" t="s">
         <v>114</v>
       </c>
@@ -12127,7 +12124,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12145,7 +12142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12163,7 +12160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12181,7 +12178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12199,7 +12196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12217,7 +12214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12235,7 +12232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12253,7 +12250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12271,7 +12268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12289,7 +12286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12307,7 +12304,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -12321,7 +12318,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12339,7 +12336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12357,7 +12354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12375,7 +12372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -12389,7 +12386,7 @@
       <c r="E70" s="80"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -12403,7 +12400,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12421,7 +12418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -12435,7 +12432,7 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -12449,7 +12446,7 @@
       <c r="E74" s="80"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -12463,7 +12460,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12481,7 +12478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12499,7 +12496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12517,7 +12514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12531,7 +12528,7 @@
       <c r="E79" s="80"/>
       <c r="F79" s="27"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12549,7 +12546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12567,7 +12564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12585,7 +12582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12603,7 +12600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12621,7 +12618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B85" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12639,7 +12636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B86" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12657,7 +12654,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>353</v>
@@ -12682,7 +12679,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>354</v>
       </c>
@@ -12696,7 +12693,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>355</v>
       </c>
@@ -12710,7 +12707,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>356</v>
       </c>
@@ -12724,7 +12721,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B92" s="43" t="s">
         <v>114</v>
       </c>
@@ -12756,7 +12753,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12786,7 +12783,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12816,7 +12813,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12846,7 +12843,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12876,7 +12873,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12906,7 +12903,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12936,7 +12933,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12966,7 +12963,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12996,7 +12993,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -13026,7 +13023,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -13056,7 +13053,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -13086,7 +13083,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -13116,7 +13113,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -13146,7 +13143,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -13176,7 +13173,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13206,7 +13203,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13236,7 +13233,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13266,7 +13263,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13296,7 +13293,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13326,7 +13323,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13356,7 +13353,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13386,7 +13383,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -13406,9 +13403,7 @@
       <c r="G114" s="60">
         <v>1</v>
       </c>
-      <c r="H114" s="46" t="s">
-        <v>746</v>
-      </c>
+      <c r="H114" s="46"/>
       <c r="I114" s="34" cm="1">
         <f t="array" ref="I114" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13418,7 +13413,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -13438,9 +13433,7 @@
       <c r="G115" s="60">
         <v>0</v>
       </c>
-      <c r="H115" s="46" t="s">
-        <v>747</v>
-      </c>
+      <c r="H115" s="46"/>
       <c r="I115" s="34" cm="1">
         <f t="array" ref="I115" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -13450,7 +13443,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13480,7 +13473,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13510,7 +13503,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13540,7 +13533,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13570,7 +13563,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13600,7 +13593,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -13630,7 +13623,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -13660,7 +13653,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -13690,7 +13683,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13720,7 +13713,7 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -13750,7 +13743,7 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -13780,7 +13773,7 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -13810,7 +13803,7 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -13840,7 +13833,7 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -13870,7 +13863,7 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -13900,7 +13893,7 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -13930,7 +13923,7 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -13960,7 +13953,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -13990,7 +13983,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -14020,7 +14013,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -14050,7 +14043,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -14080,7 +14073,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14112,7 +14105,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14144,7 +14137,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14176,7 +14169,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14206,7 +14199,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14226,7 +14219,7 @@
       <c r="G141" s="27">
         <v>1</v>
       </c>
-      <c r="H141" s="92"/>
+      <c r="H141" s="46"/>
       <c r="I141" s="34" cm="1">
         <f t="array" ref="I141" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
         <v>1</v>
@@ -14236,7 +14229,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14266,7 +14259,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14296,7 +14289,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B144" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14326,7 +14319,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B145" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14356,7 +14349,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -14386,7 +14379,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B147" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -14416,7 +14409,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="149" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
         <v>37</v>
@@ -14441,12 +14434,12 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B151" s="29" t="s">
         <v>114</v>
       </c>
@@ -14493,7 +14486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14542,7 +14535,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14591,7 +14584,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14640,7 +14633,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14689,7 +14682,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14738,7 +14731,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14787,7 +14780,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -14836,7 +14829,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -14885,7 +14878,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -14934,7 +14927,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -14983,7 +14976,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -15032,7 +15025,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -15081,7 +15074,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15130,7 +15123,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15179,7 +15172,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15228,7 +15221,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15277,7 +15270,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15326,7 +15319,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15375,7 +15368,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15424,7 +15417,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15473,7 +15466,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15522,7 +15515,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -15549,7 +15542,7 @@
         <v>88</v>
       </c>
       <c r="J173" s="28" t="s">
-        <v>753</v>
+        <v>88</v>
       </c>
       <c r="K173" s="28" t="s">
         <v>89</v>
@@ -15571,7 +15564,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15620,7 +15613,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15669,7 +15662,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15718,7 +15711,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -15767,7 +15760,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -15816,7 +15809,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -15865,7 +15858,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -15914,7 +15907,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -15963,7 +15956,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -16012,7 +16005,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -16061,7 +16054,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -16110,7 +16103,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -16159,7 +16152,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -16208,7 +16201,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -16257,7 +16250,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -16306,7 +16299,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -16355,7 +16348,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -16404,7 +16397,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16453,7 +16446,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16502,7 +16495,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16551,7 +16544,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16600,7 +16593,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16649,7 +16642,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16698,7 +16691,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="197" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16747,7 +16740,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -16796,7 +16789,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -16845,7 +16838,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="200" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B200" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -16895,7 +16888,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B201" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -16944,7 +16937,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B202" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -16993,7 +16986,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B203" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -17042,7 +17035,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B204" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -17091,7 +17084,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B205" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -17140,7 +17133,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B206" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -17189,7 +17182,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B207" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -17238,7 +17231,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B208" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -17287,7 +17280,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B209" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -17336,7 +17329,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B210" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -17385,7 +17378,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B211" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -17434,7 +17427,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B212" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -17483,7 +17476,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B213" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -17532,7 +17525,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B214" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -17581,7 +17574,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B215" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -17630,7 +17623,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="17" t="s">
         <v>327</v>
@@ -17655,7 +17648,7 @@
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
     </row>
-    <row r="220" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B220" s="29" t="s">
         <v>114</v>
       </c>
@@ -17687,7 +17680,7 @@
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -17720,7 +17713,7 @@
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
     </row>
-    <row r="222" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -17753,7 +17746,7 @@
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
     </row>
-    <row r="223" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -17786,7 +17779,7 @@
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
     </row>
-    <row r="224" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -17819,7 +17812,7 @@
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
     </row>
-    <row r="225" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -17852,7 +17845,7 @@
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
     </row>
-    <row r="226" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -17885,7 +17878,7 @@
       <c r="Q226"/>
       <c r="R226"/>
     </row>
-    <row r="227" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -17916,7 +17909,7 @@
       <c r="Q227"/>
       <c r="R227"/>
     </row>
-    <row r="228" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -17947,7 +17940,7 @@
       <c r="Q228"/>
       <c r="R228"/>
     </row>
-    <row r="229" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -17978,7 +17971,7 @@
       <c r="Q229"/>
       <c r="R229"/>
     </row>
-    <row r="230" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -18011,7 +18004,7 @@
       <c r="Q230"/>
       <c r="R230"/>
     </row>
-    <row r="231" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -18042,7 +18035,7 @@
       <c r="Q231"/>
       <c r="R231"/>
     </row>
-    <row r="232" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B232" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -18075,7 +18068,7 @@
       <c r="Q232"/>
       <c r="R232"/>
     </row>
-    <row r="233" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B233" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -18108,7 +18101,7 @@
       <c r="Q233"/>
       <c r="R233"/>
     </row>
-    <row r="234" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -18141,7 +18134,7 @@
       <c r="Q234"/>
       <c r="R234"/>
     </row>
-    <row r="235" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -18174,7 +18167,7 @@
       <c r="Q235"/>
       <c r="R235"/>
     </row>
-    <row r="236" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -18207,7 +18200,7 @@
       <c r="Q236"/>
       <c r="R236"/>
     </row>
-    <row r="237" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -18238,7 +18231,7 @@
       <c r="Q237"/>
       <c r="R237"/>
     </row>
-    <row r="238" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -18269,7 +18262,7 @@
       <c r="Q238"/>
       <c r="R238"/>
     </row>
-    <row r="239" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -18300,7 +18293,7 @@
       <c r="Q239"/>
       <c r="R239"/>
     </row>
-    <row r="240" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B240" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -18331,7 +18324,7 @@
       <c r="Q240"/>
       <c r="R240"/>
     </row>
-    <row r="241" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B241" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -18362,7 +18355,7 @@
       <c r="Q241"/>
       <c r="R241"/>
     </row>
-    <row r="242" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B242" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -18393,7 +18386,7 @@
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -18424,7 +18417,7 @@
       <c r="Q243"/>
       <c r="R243"/>
     </row>
-    <row r="244" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B244" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -18455,7 +18448,7 @@
       <c r="Q244"/>
       <c r="R244"/>
     </row>
-    <row r="245" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B245" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -18483,7 +18476,7 @@
       </c>
       <c r="J245" s="65"/>
     </row>
-    <row r="246" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -18511,7 +18504,7 @@
       </c>
       <c r="J246" s="65"/>
     </row>
-    <row r="247" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -18539,7 +18532,7 @@
       </c>
       <c r="J247" s="65"/>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B248" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -18569,7 +18562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B249" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -18595,7 +18588,7 @@
       <c r="I249" s="48"/>
       <c r="J249" s="65"/>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -18623,7 +18616,7 @@
       </c>
       <c r="J250" s="65"/>
     </row>
-    <row r="251" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B251" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -18651,7 +18644,7 @@
       </c>
       <c r="J251" s="65"/>
     </row>
-    <row r="252" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B252" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -18679,7 +18672,7 @@
       </c>
       <c r="J252" s="65"/>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B253" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -18705,7 +18698,7 @@
       <c r="I253" s="48"/>
       <c r="J253" s="65"/>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B254" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -18733,7 +18726,7 @@
       </c>
       <c r="J254" s="65"/>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B255" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -18761,7 +18754,7 @@
       </c>
       <c r="J255" s="65"/>
     </row>
-    <row r="256" spans="2:18" ht="21" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B256" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -18789,7 +18782,7 @@
       </c>
       <c r="J256" s="65"/>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B257" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -18817,7 +18810,7 @@
       </c>
       <c r="J257" s="65"/>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B258" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -18847,7 +18840,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B259" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -18875,7 +18868,7 @@
       </c>
       <c r="J259" s="65"/>
     </row>
-    <row r="260" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B260" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -18903,7 +18896,7 @@
       </c>
       <c r="J260" s="65"/>
     </row>
-    <row r="261" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B261" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -18931,7 +18924,7 @@
       </c>
       <c r="J261" s="65"/>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B262" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -18959,7 +18952,7 @@
       </c>
       <c r="J262" s="65"/>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B263" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -18987,7 +18980,7 @@
       </c>
       <c r="J263" s="65"/>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B264" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -19017,7 +19010,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B265" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -19045,7 +19038,7 @@
       </c>
       <c r="J265" s="65"/>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B266" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -19073,7 +19066,7 @@
       </c>
       <c r="J266" s="65"/>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B267" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -19101,7 +19094,7 @@
       </c>
       <c r="J267" s="65"/>
     </row>
-    <row r="268" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B268" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -19129,7 +19122,7 @@
       </c>
       <c r="J268" s="65"/>
     </row>
-    <row r="269" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B269" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -19157,7 +19150,7 @@
       </c>
       <c r="J269" s="65"/>
     </row>
-    <row r="270" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B270" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -19185,7 +19178,7 @@
       </c>
       <c r="J270" s="65"/>
     </row>
-    <row r="271" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B271" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -19213,7 +19206,7 @@
       </c>
       <c r="J271" s="65"/>
     </row>
-    <row r="272" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:10" ht="45" x14ac:dyDescent="0.2">
       <c r="B272" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -19241,7 +19234,7 @@
       </c>
       <c r="J272" s="65"/>
     </row>
-    <row r="273" spans="1:21" ht="42" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B273" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -19269,7 +19262,7 @@
       </c>
       <c r="J273" s="65"/>
     </row>
-    <row r="274" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B274" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -19297,7 +19290,7 @@
       </c>
       <c r="J274" s="65"/>
     </row>
-    <row r="275" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B275" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -19325,7 +19318,7 @@
       </c>
       <c r="J275" s="65"/>
     </row>
-    <row r="276" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B276" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -19353,7 +19346,7 @@
       </c>
       <c r="J276" s="65"/>
     </row>
-    <row r="277" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B277" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -19381,7 +19374,7 @@
       </c>
       <c r="J277" s="65"/>
     </row>
-    <row r="278" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B278" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -19409,7 +19402,7 @@
       </c>
       <c r="J278" s="65"/>
     </row>
-    <row r="279" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B279" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -19437,7 +19430,7 @@
       </c>
       <c r="J279" s="65"/>
     </row>
-    <row r="280" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B280" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -19465,7 +19458,7 @@
       </c>
       <c r="J280" s="65"/>
     </row>
-    <row r="281" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B281" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -19493,7 +19486,7 @@
       </c>
       <c r="J281" s="65"/>
     </row>
-    <row r="282" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B282" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -19519,7 +19512,7 @@
       <c r="I282" s="48"/>
       <c r="J282" s="65"/>
     </row>
-    <row r="283" spans="1:21" ht="21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B283" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -19545,7 +19538,7 @@
       <c r="I283" s="48"/>
       <c r="J283" s="65"/>
     </row>
-    <row r="286" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="16"/>
       <c r="B286" s="17" t="s">
         <v>267</v>
@@ -19570,7 +19563,7 @@
       <c r="T286" s="17"/>
       <c r="U286" s="17"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B288" s="29" t="s">
         <v>114</v>
       </c>
@@ -19584,7 +19577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B289" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19599,7 +19592,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B290" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19614,7 +19607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B291" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19629,7 +19622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="16"/>
       <c r="B294" s="17" t="s">
         <v>268</v>
@@ -19654,7 +19647,7 @@
       <c r="T294" s="17"/>
       <c r="U294" s="17"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B296" s="29" t="s">
         <v>114</v>
       </c>
@@ -19665,7 +19658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19678,7 +19671,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19691,7 +19684,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19703,7 +19696,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="302" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="16"/>
       <c r="B302" s="17" t="s">
         <v>517</v>
@@ -19728,12 +19721,12 @@
       <c r="T302" s="17"/>
       <c r="U302" s="17"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B303" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B305" s="43" t="s">
         <v>114</v>
       </c>
@@ -19762,7 +19755,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B306" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19792,7 +19785,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B307" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19822,7 +19815,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="309" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="16"/>
       <c r="B309" s="17" t="s">
         <v>265</v>
@@ -19847,7 +19840,7 @@
       <c r="T309" s="17"/>
       <c r="U309" s="17"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B311" s="37" t="s">
         <v>114</v>
       </c>
@@ -19882,7 +19875,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B312" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19918,7 +19911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19954,7 +19947,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="16"/>
       <c r="B316" s="17" t="s">
         <v>542</v>
@@ -19979,7 +19972,7 @@
       <c r="T316" s="17"/>
       <c r="U316" s="17"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B318" s="43" t="s">
         <v>114</v>
       </c>
@@ -19996,7 +19989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B319" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20015,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B320" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20034,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B321" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20053,7 +20046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B322" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20072,7 +20065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B323" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20091,7 +20084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B324" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20110,7 +20103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B325" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20129,7 +20122,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B326" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20148,7 +20141,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B327" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20167,7 +20160,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B328" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20186,7 +20179,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B329" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20205,7 +20198,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B330" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20224,7 +20217,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B331" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20243,7 +20236,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B332" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -20262,7 +20255,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="16"/>
       <c r="B335" s="17" t="s">
         <v>281</v>
@@ -20287,7 +20280,7 @@
       <c r="T335" s="17"/>
       <c r="U335" s="17"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B337" s="29" t="s">
         <v>114</v>
       </c>
@@ -20316,7 +20309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B338" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20344,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B339" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20372,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B340" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20403,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B341" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20434,7 +20427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="16"/>
       <c r="B344" s="17" t="s">
         <v>69</v>
@@ -20459,7 +20452,7 @@
       <c r="T344" s="17"/>
       <c r="U344" s="17"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B346" s="43" t="s">
         <v>114</v>
       </c>
@@ -20471,7 +20464,7 @@
       </c>
       <c r="E346" s="2"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B347" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20485,7 +20478,7 @@
       </c>
       <c r="E347" s="2"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B348" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20499,7 +20492,7 @@
       </c>
       <c r="E348" s="2"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B349" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20513,7 +20506,7 @@
       </c>
       <c r="E349" s="2"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B350" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20527,7 +20520,7 @@
       </c>
       <c r="E350" s="2"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B351" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20541,7 +20534,7 @@
       </c>
       <c r="E351" s="2"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B352" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20555,7 +20548,7 @@
       </c>
       <c r="E352" s="2"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B353" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20569,7 +20562,7 @@
       </c>
       <c r="E353" s="2"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B354" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20583,7 +20576,7 @@
       </c>
       <c r="E354" s="2"/>
     </row>
-    <row r="357" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="16"/>
       <c r="B357" s="17" t="s">
         <v>412</v>
@@ -20608,7 +20601,7 @@
       <c r="T357" s="17"/>
       <c r="U357" s="17"/>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B359" s="2" t="s">
         <v>114</v>
       </c>
@@ -20625,7 +20618,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20643,7 +20636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20661,7 +20654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20679,7 +20672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20697,7 +20690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20715,7 +20708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20733,7 +20726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20751,7 +20744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20769,7 +20762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20787,7 +20780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20805,7 +20798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20823,7 +20816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20841,7 +20834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20859,7 +20852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -20877,7 +20870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -20895,7 +20888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -20913,7 +20906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -20931,7 +20924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -20949,7 +20942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -20967,7 +20960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -20985,7 +20978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B380" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -21003,7 +20996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B381" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -21021,7 +21014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B382" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -21039,7 +21032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B383" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -21057,7 +21050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B384" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -21075,7 +21068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B385" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -21093,7 +21086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B386" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -21111,7 +21104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B387" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -21129,7 +21122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B388" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -21147,7 +21140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B389" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -21165,7 +21158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B390" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -21183,7 +21176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B391" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -21201,7 +21194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B392" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -21219,7 +21212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B393" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -21237,7 +21230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B394" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -21255,7 +21248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B395" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -21273,7 +21266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B396" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -21291,7 +21284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B397" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -21309,7 +21302,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B398" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -21327,7 +21320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B399" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -21345,7 +21338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B400" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -21363,7 +21356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B401" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -21381,7 +21374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B402" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -21399,7 +21392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B403" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -21417,7 +21410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B404" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -21435,7 +21428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B405" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -21453,7 +21446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B406" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -21471,7 +21464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B407" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -21489,7 +21482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B408" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -21507,7 +21500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B409" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -21593,19 +21586,19 @@
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" customWidth="1"/>
-    <col min="6" max="6" width="60.7265625" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>114</v>
       </c>
@@ -21622,7 +21615,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21640,7 +21633,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21658,12 +21651,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>114</v>
       </c>
@@ -21677,7 +21670,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21692,7 +21685,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21707,7 +21700,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21722,7 +21715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21737,7 +21730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21752,7 +21745,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21787,15 +21780,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="84.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -21803,10 +21796,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
@@ -21820,7 +21813,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21835,7 +21828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21850,7 +21843,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21865,7 +21858,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21880,7 +21873,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21895,7 +21888,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21910,7 +21903,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -21925,7 +21918,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21940,7 +21933,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21955,7 +21948,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21970,7 +21963,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21985,7 +21978,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -22000,7 +21993,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22015,7 +22008,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22030,7 +22023,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22045,7 +22038,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22060,7 +22053,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22075,7 +22068,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22090,7 +22083,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22105,7 +22098,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22120,7 +22113,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22135,7 +22128,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22150,7 +22143,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22165,7 +22158,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22180,7 +22173,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22215,9 +22208,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -22246,7 +22239,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -22276,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -22306,7 +22299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -22336,7 +22329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -22366,7 +22359,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -22396,7 +22389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -22426,7 +22419,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -22456,7 +22449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -22486,7 +22479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -22516,7 +22509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -22546,7 +22539,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -22576,7 +22569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -22606,7 +22599,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22636,7 +22629,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22666,7 +22659,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22696,7 +22689,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22726,7 +22719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22756,7 +22749,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22786,7 +22779,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22816,7 +22809,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22846,7 +22839,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22876,7 +22869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22906,7 +22899,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22936,7 +22929,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22966,7 +22959,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22996,7 +22989,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -23026,7 +23019,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -23056,7 +23049,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -23086,7 +23079,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -23116,7 +23109,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -23146,7 +23139,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -23176,7 +23169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -23206,7 +23199,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -23236,7 +23229,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -23266,7 +23259,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -23296,7 +23289,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -23326,7 +23319,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -23356,7 +23349,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -23386,7 +23379,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -23416,7 +23409,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -23446,7 +23439,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -23476,7 +23469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -23506,7 +23499,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -23536,7 +23529,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -23566,7 +23559,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -23596,7 +23589,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -23626,7 +23619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -23656,7 +23649,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -23686,7 +23679,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -23716,7 +23709,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -23746,7 +23739,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -23776,7 +23769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -23806,7 +23799,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -23836,7 +23829,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -23866,7 +23859,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -23896,7 +23889,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -23926,7 +23919,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -23956,7 +23949,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -23986,7 +23979,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -24016,7 +24009,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -24046,7 +24039,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -24076,7 +24069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -24106,7 +24099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -24136,7 +24129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -24166,7 +24159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>65</v>
@@ -24196,7 +24189,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>66</v>
@@ -24226,7 +24219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>67</v>
@@ -24256,7 +24249,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>68</v>
@@ -24286,7 +24279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>69</v>
@@ -24316,7 +24309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>70</v>
@@ -24346,7 +24339,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>71</v>
@@ -24376,7 +24369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>72</v>
@@ -24406,7 +24399,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>73</v>
@@ -24436,7 +24429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>74</v>
@@ -24466,7 +24459,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>75</v>
@@ -24496,7 +24489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>76</v>
@@ -24526,7 +24519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>77</v>
@@ -24556,7 +24549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>78</v>
@@ -24586,7 +24579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>79</v>
@@ -24616,7 +24609,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>80</v>
@@ -24646,7 +24639,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>81</v>
@@ -24676,7 +24669,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>82</v>
@@ -24706,7 +24699,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>83</v>
@@ -24736,7 +24729,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>84</v>
@@ -24766,7 +24759,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>85</v>
@@ -24796,7 +24789,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>86</v>
@@ -24826,7 +24819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>87</v>
@@ -24856,7 +24849,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>88</v>
@@ -24886,7 +24879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>89</v>
@@ -24916,7 +24909,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>90</v>
@@ -24946,7 +24939,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>91</v>
@@ -24976,7 +24969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>92</v>
@@ -25006,7 +24999,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>93</v>
@@ -25036,7 +25029,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>94</v>
@@ -25066,7 +25059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>95</v>
@@ -25096,7 +25089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>96</v>
@@ -25126,7 +25119,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>97</v>
@@ -25156,7 +25149,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>98</v>
@@ -25186,7 +25179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>99</v>
@@ -25216,7 +25209,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>100</v>
@@ -25246,7 +25239,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>101</v>

--- a/inst/extdata/fredi/national/FrEDI_config.xlsx
+++ b/inst/extdata/fredi/national/FrEDI_config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5D5518-6C5F-4571-9EB9-0CBE0E105093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357DCE4-553E-495E-853A-374B78F9E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -220,7 +220,7 @@
     Max extrapolation temperature</t>
       </text>
     </comment>
-    <comment ref="J337" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+    <comment ref="J336" authorId="11" shapeId="0" xr:uid="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="752">
   <si>
     <t>CanESM2</t>
   </si>
@@ -1954,9 +1954,6 @@
     <t>200 cm</t>
   </si>
   <si>
-    <t>250 cm</t>
-  </si>
-  <si>
     <t>0cm</t>
   </si>
   <si>
@@ -1973,9 +1970,6 @@
   </si>
   <si>
     <t>200cm</t>
-  </si>
-  <si>
-    <t>250cm</t>
   </si>
   <si>
     <t>hasImpacts</t>
@@ -3720,7 +3714,7 @@
     <cellStyle name="YellowCell 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="z A Column text" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="199">
     <dxf>
       <fill>
         <patternFill>
@@ -3745,15 +3739,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -7924,11 +7909,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Table Style 2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{03CADF67-A835-4D43-81C5-75376CF934E2}">
-      <tableStyleElement type="wholeTable" dxfId="199"/>
+      <tableStyleElement type="wholeTable" dxfId="198"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="2" xr9:uid="{5906E8DD-1157-4888-9A27-3B2DB57DF7A2}">
-      <tableStyleElement type="wholeTable" dxfId="198"/>
-      <tableStyleElement type="headerRow" dxfId="197"/>
+      <tableStyleElement type="wholeTable" dxfId="197"/>
+      <tableStyleElement type="headerRow" dxfId="196"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8130,10 +8115,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="Table19" displayName="Table19" ref="B9:C34" totalsRowShown="0" headerRowDxfId="195">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="195"/>
+    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="194"/>
     <tableColumn id="2" xr3:uid="{873A529C-ADE9-47CF-B36A-585DA33D7B04}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8141,37 +8126,37 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B296:D299" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{62C1689B-D9D6-412A-917F-C64CA7854F7C}" name="co_constants" displayName="co_constants" ref="B296:D299" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="79">
+    <tableColumn id="1" xr3:uid="{D7815580-A46D-4035-AF95-6DFB7EDC1C86}" name="row_id" dataDxfId="78">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="77" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CEFD3F0-E79C-4BEE-B910-4D600E302386}" name="constant" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{DB7DDBBB-C95A-4211-819C-B05A5C2E7319}" name="value" dataDxfId="76" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B92:I147" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C2AD6E-F129-4852-8BB5-5A249C234872}" name="co_variants" displayName="co_variants" ref="B92:I147" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B93:I147">
     <sortCondition ref="C93:C147"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="1" xr3:uid="{1BCFA006-CF85-4F3A-AC79-60916A48ED39}" name="row_id" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="62">
+    <tableColumn id="18" xr3:uid="{11CBE921-72AF-48C1-82DE-27D30284B810}" name="sector_id" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{1A31D87B-CDD5-4D8C-A4C9-8892B2B2C1E8}" name="variant_label" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{BD980D22-60C8-4EA5-878C-1F6646D73814}" name="variant_id" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{77C8D2EF-4466-45BD-90C6-9DB11F371760}" name="sectorprimary" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{677E6396-DB82-43C2-B1C8-9CF8A385BC06}" name="includeaggregate" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="19" xr3:uid="{C16D6C81-A98D-4F3D-B812-6AFD7158219C}" name="damageAdjName" dataDxfId="61">
       <calculatedColumnFormula xml:space="preserve"> INDEX( co_impactTypes[damageAdjName], MATCH( co_variants[[#This Row],[sector_id]], co_impactTypes[sector_id], 0 ) ) &amp;
    IF(OR(co_variants[[#This Row],[sector_id]] = "Roads", co_variants[[#This Row],[sector_id]] = "ForestryLoss"),"_" &amp; co_variants[[#This Row],[variant_id]], "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="61">
+    <tableColumn id="8" xr3:uid="{DBDAE92A-E63D-41B7-BD88-AE325DF1F4FE}" name="hasImpacts" dataDxfId="60">
       <calculatedColumnFormula array="1" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8180,70 +8165,70 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B288:E291" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B288:E291" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierDescription" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B337:J341" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B336:J340" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="51">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{98CB64F8-23F0-4402-9CE1-03695A07036B}" name="inputDesc" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="45">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="region" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B359:F409" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="B359:F409" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B358:F408" totalsRowShown="0" headerRowDxfId="42">
+  <autoFilter ref="B358:F408" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="41">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{F4F2D0D4-82EF-41DF-B43B-E23CB36CF080}" name="region" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B305:J307" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A7C1084-4BD5-408B-BBB5-2FC0F198D7F4}" name="co_slrScalars" displayName="co_slrScalars" ref="B305:J307" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{39608CCF-EBE2-4EFA-BA66-990DD890C7D3}" name="row_id" dataDxfId="34">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{24491F20-89B9-4A6B-A87E-CDB3D398E1DA}" name="sector" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{6AB21964-D6DD-4BA3-BDFD-E851D5F956FF}" name="impactType"/>
-    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{60DDD337-313C-431F-83CE-788A259B2B14}" name="physScalarName" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{AB34CD40-6627-470D-9B2F-2360E9A41A63}" name="econMultiplierName" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{774FF8C9-540D-4647-BB5C-0F27D92917EB}" name="c1" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{6D77C177-ACD8-474A-9CEF-58627396E0D5}" name="exp0" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{45D5B794-1A45-47DA-8A77-45C881CC1B29}" name="c2" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{07C4CFF2-DEE6-4176-813C-12CE016805C3}" name="refYear" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8253,10 +8238,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="26">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -8265,23 +8250,23 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}" name="testDev" displayName="testDev" ref="B3:E28" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B3:E28" xr:uid="{EF872F1E-6955-405B-B61A-5AA538BA1B9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E6">
     <sortCondition descending="1" ref="D4:D6"/>
@@ -8289,39 +8274,38 @@
     <sortCondition ref="C4:C6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{F4105D57-2925-402A-AD59-A6C04C18DAF5}" name="row_id" dataDxfId="15">
       <calculatedColumnFormula xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{724C3667-B22B-4E0E-A26D-84EB27DA32DC}" name="Table Name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{2DE33227-E2C9-4F8F-BDC2-7C7EB619B32B}" name="Changes if new sector added" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{91AE5770-239D-41B2-B469-E73127600B2A}" name="New sector changes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
-  <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
-  <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:H102" totalsRowShown="0">
+  <autoFilter ref="A1:H102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
+  <tableColumns count="8">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="11">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N17" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N17" totalsRowShown="0" headerRowDxfId="193" dataDxfId="192">
   <autoFilter ref="B3:N17" xr:uid="{AD244AAD-EF2A-4E3D-905E-7CC1947F3F1F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N4">
     <sortCondition descending="1" ref="D4"/>
@@ -8329,86 +8313,86 @@
     <sortCondition ref="C4"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="192">
+    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="191">
       <calculatedColumnFormula xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="190"/>
-    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="189"/>
-    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="188">
+    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="190"/>
+    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="188"/>
+    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="187">
       <calculatedColumnFormula xml:space="preserve"> "row_id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="187">
+    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="186">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="186">
+    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="185">
       <calculatedColumnFormula xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="185">
+    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="184">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="184">
+    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="183">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="183">
+    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="182">
       <calculatedColumnFormula array="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="182">
+    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="181">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="180"/>
+    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:O51" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176" totalsRowBorderDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}" name="co_sectors" displayName="co_sectors" ref="B20:O51" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177" tableBorderDxfId="175" totalsRowBorderDxfId="174">
   <autoFilter ref="B20:O51" xr:uid="{4FB08D13-3C4C-4BB6-9ED3-E44A55D938B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:O51">
     <sortCondition ref="D21:D51"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="14" xr3:uid="{60C3EA8F-72E0-495B-8B73-6D682443C60B}" name="row_id" dataDxfId="173" totalsRowDxfId="172">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="1" xr3:uid="{05E901B8-39C9-4448-8C69-F1824616C5B3}" name="sector_id" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{8435BE36-75E6-4124-BCAF-A700C82839D8}" name="sector_label" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{2BB914B0-56FF-4336-B8AD-DDDF5E8FE532}" name="include" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{18B4827C-060D-4556-903A-BB8A82781CB7}" name="modelType" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{60EA29EE-87DF-48ED-AC00-5DE87371BD83}" name="variants" dataDxfId="163" totalsRowDxfId="162">
       <calculatedColumnFormula array="1" xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ),  COLUMN( co_variants[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_variants[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_variants[variant_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="5" xr3:uid="{037FAF60-CB1C-4C29-A873-6D3C321F2480}" name="impactYears" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula xml:space="preserve"> _xlfn.TEXTJOIN( ", ", 1,
   OFFSET( INDIRECT( ADDRESS( ROW( INDEX( co_impactYears[sector_id], MATCH( co_sectors[[#This Row],[sector_id]], co_impactYears[sector_id], 0 ) ) ),  COLUMN( co_impactYears[[#Headers],[sector_id]] ), , , "controlTables" ) ), 0, 1, 1, 4 )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="7" xr3:uid="{28F0B34D-48CC-469A-9D3C-5A943883A167}" name="impactTypes" dataDxfId="159" totalsRowDxfId="158">
       <calculatedColumnFormula array="1" xml:space="preserve">  _xlfn.TEXTJOIN( ", ", 1,
   IF( OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ),  COLUMN( co_impactTypes[[#Headers],[sector_id]] ), , , "controlTables" ) ), 1, 0, MAX( co_impactTypes[row_id] ), 1 ) = co_sectors[[#This Row],[sector_id]], co_impactTypes[impactType_label], "" )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="9" xr3:uid="{031B452A-F7AD-42C2-B528-CC3050A26AA0}" name="interpolateEstimateYears" dataDxfId="157" totalsRowDxfId="156">
       <calculatedColumnFormula xml:space="preserve"> IF( co_sectors[[#This Row],[impactYears]] = "NA", 0, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{131F4380-0D81-4321-BEC8-8F7D57B7E216}" name="hasPhysicalImpacts" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="3" xr3:uid="{131F4380-0D81-4321-BEC8-8F7D57B7E216}" name="hasPhysicalImpacts" dataDxfId="155" totalsRowDxfId="154">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[physicalmeasure] = "N/A", 0, 1) ) &gt;= 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B7C2D68F-C2A9-4F34-BC0E-46157710709A}" name="hasEconomicImpacts" dataDxfId="154" totalsRowDxfId="153">
+    <tableColumn id="12" xr3:uid="{B7C2D68F-C2A9-4F34-BC0E-46157710709A}" name="hasEconomicImpacts" dataDxfId="153" totalsRowDxfId="152">
       <calculatedColumnFormula array="1" xml:space="preserve"> OR( SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c0] &lt;&gt; 0, 1, 0) ) &gt;= 1,
       SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ), --IF( co_impactTypes[c1] &lt;&gt; 0, 1, 0) ) &gt;= 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="152" totalsRowDxfId="151">
+    <tableColumn id="10" xr3:uid="{C86349E6-E4A5-4E4F-8866-5A0EC09E18B2}" name="Number of variants" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_variants[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="11" xr3:uid="{5F0E2743-320C-46C8-BF83-E0748C4ED15D}" name="Number of impact types" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula array="1" xml:space="preserve"> SUMPRODUCT( --( co_sectors[[#This Row],[sector_id]] = co_impactTypes[sector_id] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="13" xr3:uid="{39CDE92C-BE84-47A0-A80A-EB0EC7367742}" name="Number of impact years" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula array="1" xml:space="preserve"> IF( INDEX( co_impactYears[NA], MATCH( 1, --( co_sectors[[#This Row],[sector_id]] = co_impactYears[sector_id] ), 0 ) ) = "NA", 1, 2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8417,34 +8401,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B311:L313" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B311:L313" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="144">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="143">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="139"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="136"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="modelType_id" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="modelType_label" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="modelUnitDesc" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="modelUnit_id" dataDxfId="138"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="modelUnit_label" dataDxfId="137"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="modelUnitScale" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="modelRefYear" dataDxfId="135"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="modelMaxOutput" dataDxfId="134"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="modelMaxExtrap" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B346:D354" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B345:D353" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="130">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="129">
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region_id" dataDxfId="128">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8453,66 +8437,66 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B318:F332" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CD29BCDB-B6F2-4FB9-B21C-6B30EFCFDCE7}" name="co_models" displayName="co_models" ref="B318:F331" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{BF1485BD-F9FE-4F5B-9D9F-D9CB3D918F44}" name="row_id" dataDxfId="125">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="125">
+    <tableColumn id="2" xr3:uid="{A209304D-718C-45BB-922A-A83B3EC89858}" name="model_id" dataDxfId="124">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="124"/>
-    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{CBC70E09-D146-4CF4-911F-60EB221755C0}" name="maxUnitValue" dataDxfId="123"/>
+    <tableColumn id="20" xr3:uid="{A1F83970-3B0E-4464-8376-1B37DBE20974}" name="modelType" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{F9DE0808-4FD0-4FB6-9363-B580ED760D5C}" name="model_label" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B55:F86" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impactYears" displayName="co_impactYears" ref="B55:F86" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="B55:F86" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B56:F86">
     <sortCondition ref="C56:C86"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="sector_id" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="NA" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="2010" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="2090" dataDxfId="110" totalsRowDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B151:P215" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BAD307D6-4C07-4313-AAAB-5A0F25B0CD27}" name="co_impactTypes" displayName="co_impactTypes" ref="B151:P215" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="B151:P215" xr:uid="{E446364F-959A-4BFF-80B5-CD65050C4865}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B152:P215">
     <sortCondition ref="C152:C215"/>
     <sortCondition ref="D152:D215"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{3C0C87EC-3301-4189-A438-330FBC0C23CE}" name="row_id" dataDxfId="106">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="103"/>
-    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="100"/>
-    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="98"/>
-    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="97"/>
-    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="96"/>
-    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="94"/>
-    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="93">
+    <tableColumn id="5" xr3:uid="{695E7B0A-9CCF-4B48-8FB4-7B2C8AC23CA2}" name="sector_id" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{AC7D2590-5F6F-4E8A-8395-3ACC925DD65E}" name="impactType_label" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{389F4E81-E357-4437-B986-87606739FD52}" name="impactType_id" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{252ECC08-A081-4155-A2E4-6E6953775245}" name="impactType_description" dataDxfId="102"/>
+    <tableColumn id="18" xr3:uid="{20E67458-91EF-4192-9F05-0BEE3F89945B}" name="physicalmeasure" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{3CFD45D4-B79B-4F80-92FC-337937E46944}" name="physScalarName" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{40E9B945-11EE-47C9-B5D8-A41A8FC63734}" name="physAdjName" dataDxfId="99"/>
+    <tableColumn id="16" xr3:uid="{5C5AE37A-2086-491F-BF3C-F22CC928E516}" name="damageAdjName" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{2A5B466E-A990-49E9-92E3-0103059D4863}" name="econScalarName" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{74F77DB7-A970-4C19-A8F9-04E79FC664FD}" name="econMultiplierName" dataDxfId="96"/>
+    <tableColumn id="12" xr3:uid="{DA200B1A-95FB-4000-933E-BC048A1E0631}" name="c0" dataDxfId="95"/>
+    <tableColumn id="13" xr3:uid="{F6CED4C7-F96B-4766-BD90-7B52A49FAABA}" name="c1" dataDxfId="94"/>
+    <tableColumn id="14" xr3:uid="{E36983CA-3DF1-4DD8-A727-E60C1D905346}" name="exp0" dataDxfId="93"/>
+    <tableColumn id="15" xr3:uid="{861014FE-4437-4D17-8CED-BC8B72417DD9}" name="year0" dataDxfId="92">
       <calculatedColumnFormula xml:space="preserve"> IF(co_impactTypes[[#This Row],[econMultiplierName]]="None", "N/A", 2010)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8521,24 +8505,24 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B220:J283" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarInfo" displayName="co_scalarInfo" ref="B220:J283" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="B220:J283" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B221:J267">
     <sortCondition ref="E226:E267"/>
     <sortCondition ref="C226:C267"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="89">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarName" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{11586BC8-9866-411F-AFB1-B54CDBE58BC8}" name="scalarLabel" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{59273865-10D7-4E58-A34B-98B12FD27367}" name="scalarType" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{44722630-DE32-4127-9D36-E5716D7B6FB1}" name="constant_or_dynamic" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{06B55EB3-A830-4A09-BCEF-732F610DB775}" name="national_or_regional" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{DA5FA732-C673-49CC-B393-EEDF239C5944}" name="valueYear" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{072DFA28-3A99-48D9-9F87-0B9663CC8EBE}" name="dataType" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{083C27B7-8723-4638-8D25-C880E916AEB0}" name="notes" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8897,7 +8881,7 @@
   <threadedComment ref="D318" dT="2023-12-08T22:41:08.83" personId="{00000000-0000-0000-0000-000000000000}" id="{A0D64BDD-1681-4C8F-9929-C1898D0603B0}">
     <text>Max extrapolation temperature</text>
   </threadedComment>
-  <threadedComment ref="J337" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
+  <threadedComment ref="J336" dT="2021-03-30T17:10:38.36" personId="{00000000-0000-0000-0000-000000000000}" id="{A5816E78-F7FA-40E3-ACC3-4CDB677E4DA9}">
     <text>Whether region is a dimension of the input</text>
   </threadedComment>
 </ThreadedComments>
@@ -8914,13 +8898,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="56" t="s">
         <v>74</v>
       </c>
@@ -8928,7 +8912,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="78" t="s">
         <v>79</v>
       </c>
@@ -8936,7 +8920,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="79" t="s">
         <v>225</v>
       </c>
@@ -8944,7 +8928,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B12" s="78" t="s">
         <v>153</v>
       </c>
@@ -8952,79 +8936,79 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B13" s="78"/>
       <c r="C13" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="79"/>
       <c r="C14" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="79"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="79"/>
       <c r="C16" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B17" s="79"/>
       <c r="C17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B18" s="79"/>
       <c r="C18" s="54" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="79"/>
       <c r="C19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="79"/>
       <c r="C20" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="79"/>
       <c r="C21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="79"/>
       <c r="C22" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="79"/>
       <c r="C23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B24" s="79"/>
       <c r="C24" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="30.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B25" s="79" t="s">
         <v>158</v>
       </c>
@@ -9032,55 +9016,55 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B26" s="79"/>
       <c r="C26" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="79"/>
       <c r="C27" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="79"/>
       <c r="C28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B29" s="79"/>
       <c r="C29" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="79"/>
       <c r="C30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="79"/>
       <c r="C31" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="79"/>
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="79"/>
       <c r="C33" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B34" s="78" t="s">
         <v>209</v>
       </c>
@@ -9088,88 +9072,88 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C36" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C38" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C40" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C42" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C44" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C46" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -9197,18 +9181,18 @@
       <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="60.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="60.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="60.54296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="60.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -9216,10 +9200,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
@@ -9260,7 +9244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>1</v>
@@ -9310,7 +9294,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>2</v>
@@ -9362,7 +9346,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>3</v>
@@ -9409,7 +9393,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>4</v>
@@ -9456,7 +9440,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>5</v>
@@ -9503,7 +9487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>6</v>
@@ -9523,7 +9507,7 @@
       </c>
       <c r="G9" s="31" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H9" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9531,7 +9515,7 @@
       </c>
       <c r="I9" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J9" s="31" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9550,7 +9534,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>7</v>
@@ -9574,11 +9558,11 @@
       </c>
       <c r="H10" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J10" s="31" cm="1">
         <f t="array" aca="1" ref="J10" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9597,7 +9581,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>8</v>
@@ -9647,7 +9631,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>9</v>
@@ -9694,13 +9678,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -9714,7 +9698,7 @@
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H13" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9722,7 +9706,7 @@
       </c>
       <c r="I13" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9741,7 +9725,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>11</v>
@@ -9777,18 +9761,18 @@
       </c>
       <c r="K14" s="31" cm="1">
         <f t="array" aca="1" ref="K14" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M14" s="48"/>
       <c r="N14" s="47" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>12</v>
@@ -9835,7 +9819,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>13</v>
@@ -9855,7 +9839,7 @@
       </c>
       <c r="G16" s="31" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H16" s="31">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -9863,7 +9847,7 @@
       </c>
       <c r="I16" s="31">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J16" s="31" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -9882,7 +9866,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</f>
         <v>14</v>
@@ -9945,28 +9929,28 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U409"/>
+  <dimension ref="A1:U408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J174" sqref="J174"/>
+      <selection pane="topRight" activeCell="G327" sqref="G327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="20.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="18.54296875" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>264</v>
@@ -9991,7 +9975,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_sectors[[#Headers],[row_id]] ), COLUMN( co_sectors[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Sectors Table</v>
@@ -10000,7 +9984,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactYears[[#Headers],[row_id]] ), COLUMN( co_impactYears[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Year Estimates</v>
@@ -10009,7 +9993,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_variants[[#Headers],[row_id]] ), COLUMN( co_variants[[#Headers],[row_id]] ), , , ) ), -4, , 1, 1 )</f>
         <v>Variants Table</v>
@@ -10018,7 +10002,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_impactTypes[[#Headers],[row_id]] ), COLUMN( co_impactTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Impact Types</v>
@@ -10027,7 +10011,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_scalarInfo[[#Headers],[row_id]] ), COLUMN( co_scalarInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Scalar Information</v>
@@ -10036,7 +10020,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C7" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_econMultipliers[[#Headers],[row_id]] ), COLUMN( co_econMultipliers[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Economic Multipliers</v>
@@ -10045,7 +10029,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C8" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_constants[[#Headers],[row_id]] ), COLUMN( co_constants[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Constants</v>
@@ -10054,7 +10038,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_modelTypes[[#Headers],[row_id]] ), COLUMN( co_modelTypes[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Model Types</v>
@@ -10063,7 +10047,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_models[[#Headers],[row_id]] ), COLUMN( co_models[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>GCM Models &amp; SLR Scenarios</v>
@@ -10072,7 +10056,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_regions[[#Headers],[row_id]] ), COLUMN( co_regions[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Regions</v>
@@ -10081,7 +10065,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_inputInfo[[#Headers],[row_id]] ), COLUMN( co_inputInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Input Scenario Information</v>
@@ -10090,7 +10074,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_states[[#Headers],[row_id]] ), COLUMN( co_states[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>States</v>
@@ -10099,7 +10083,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="49" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_slrScalars[[#Headers],[row_id]] ), COLUMN( co_slrScalars[[#Headers],[row_id]] ), , , ) ), -3, , 1, 1 )</f>
         <v>SLR Scalars</v>
@@ -10108,7 +10092,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="C16" s="53" t="s">
         <v>263</v>
       </c>
@@ -10122,7 +10106,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>72</v>
@@ -10147,7 +10131,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>114</v>
       </c>
@@ -10176,10 +10160,10 @@
         <v>273</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>360</v>
@@ -10191,7 +10175,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -10252,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -10313,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B23" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -10374,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -10435,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -10496,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B26" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -10557,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B27" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -10618,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -10679,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B29" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -10740,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -10801,16 +10785,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E31" s="12">
         <v>1</v>
@@ -10862,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B32" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -10923,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -10984,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -11045,16 +11029,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
@@ -11106,16 +11090,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E36" s="12">
         <v>1</v>
@@ -11167,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -11228,16 +11212,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B38" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E38" s="12">
         <v>1</v>
@@ -11289,16 +11273,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B39" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E39" s="12">
         <v>1</v>
@@ -11350,16 +11334,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" ht="42" x14ac:dyDescent="0.3">
       <c r="B40" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E40" s="12">
         <v>1</v>
@@ -11411,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -11472,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B42" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -11533,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B43" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -11594,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -11655,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -11716,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -11777,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -11838,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -11899,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -11960,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B50" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12021,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B51" s="71">
         <f xml:space="preserve"> ROW( co_sectors[[#This Row],[row_id]] ) - ROW( co_sectors[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12082,7 +12066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
         <v>266</v>
@@ -12107,7 +12091,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
         <v>114</v>
       </c>
@@ -12124,7 +12108,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12142,7 +12126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12160,7 +12144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12178,7 +12162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12196,7 +12180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12214,7 +12198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12232,7 +12216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12250,7 +12234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12268,7 +12252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -12286,7 +12270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -12304,13 +12288,13 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>190</v>
@@ -12318,7 +12302,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -12336,7 +12320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -12354,7 +12338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -12372,13 +12356,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>190</v>
@@ -12386,13 +12370,13 @@
       <c r="E70" s="80"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>190</v>
@@ -12400,7 +12384,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -12418,13 +12402,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>190</v>
@@ -12432,13 +12416,13 @@
       <c r="E73" s="80"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>190</v>
@@ -12446,13 +12430,13 @@
       <c r="E74" s="80"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>190</v>
@@ -12460,7 +12444,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -12478,7 +12462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -12496,7 +12480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -12514,7 +12498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -12528,7 +12512,7 @@
       <c r="E79" s="80"/>
       <c r="F79" s="27"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -12546,7 +12530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -12564,7 +12548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -12582,7 +12566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -12600,7 +12584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -12618,7 +12602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -12636,7 +12620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <f xml:space="preserve"> ROW( co_impactYears[[#This Row],[row_id]] ) - ROW(co_impactYears[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -12654,7 +12638,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>353</v>
@@ -12679,7 +12663,7 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>354</v>
       </c>
@@ -12693,7 +12677,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>355</v>
       </c>
@@ -12707,7 +12691,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>356</v>
       </c>
@@ -12721,7 +12705,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B92" s="43" t="s">
         <v>114</v>
       </c>
@@ -12744,7 +12728,7 @@
         <v>125</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -12753,7 +12737,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -12783,7 +12767,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -12813,7 +12797,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -12843,7 +12827,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -12873,7 +12857,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -12885,7 +12869,7 @@
         <v>363</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F97" s="60">
         <v>0</v>
@@ -12903,7 +12887,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -12915,7 +12899,7 @@
         <v>364</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F98" s="60">
         <v>0</v>
@@ -12933,7 +12917,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -12963,7 +12947,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -12993,7 +12977,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -13023,7 +13007,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B102" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -13053,7 +13037,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B103" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -13065,7 +13049,7 @@
         <v>363</v>
       </c>
       <c r="E103" s="47" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F103" s="60">
         <v>0</v>
@@ -13083,7 +13067,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B104" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -13095,7 +13079,7 @@
         <v>364</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F104" s="60">
         <v>0</v>
@@ -13113,7 +13097,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -13143,7 +13127,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B106" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -13173,7 +13157,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B107" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -13203,7 +13187,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B108" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -13233,7 +13217,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B109" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -13263,7 +13247,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -13293,7 +13277,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -13323,7 +13307,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B112" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -13353,7 +13337,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B113" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -13383,19 +13367,19 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B114" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E114" s="47" t="s">
         <v>620</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E114" s="47" t="s">
-        <v>622</v>
       </c>
       <c r="F114" s="60">
         <v>1</v>
@@ -13413,19 +13397,19 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B115" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F115" s="60">
         <v>0</v>
@@ -13443,7 +13427,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B116" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -13473,7 +13457,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B117" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -13503,7 +13487,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B118" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -13533,7 +13517,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B119" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -13563,7 +13547,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B120" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -13593,19 +13577,19 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B121" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F121" s="60">
         <v>1</v>
@@ -13623,19 +13607,19 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B122" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D122" s="26" t="s">
         <v>111</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F122" s="60">
         <v>0</v>
@@ -13653,13 +13637,13 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D123" s="26" t="s">
         <v>38</v>
@@ -13683,7 +13667,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -13713,19 +13697,19 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F125" s="60">
         <v>0</v>
@@ -13743,19 +13727,19 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
       <c r="C126" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D126" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="D126" s="26" t="s">
-        <v>588</v>
-      </c>
       <c r="E126" s="47" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F126" s="60">
         <v>1</v>
@@ -13773,19 +13757,19 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F127" s="60">
         <v>0</v>
@@ -13803,19 +13787,19 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C128" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D128" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="D128" s="26" t="s">
-        <v>587</v>
-      </c>
       <c r="E128" s="47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F128" s="60">
         <v>0</v>
@@ -13833,19 +13817,19 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B129" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E129" s="47" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F129" s="60">
         <v>1</v>
@@ -13863,19 +13847,19 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>38</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E130" s="47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F130" s="60">
         <v>0</v>
@@ -13893,13 +13877,13 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B131" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D131" s="26" t="s">
         <v>111</v>
@@ -13923,19 +13907,19 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B132" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>40</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D132" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E132" s="47" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F132" s="60">
         <v>1</v>
@@ -13953,7 +13937,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -13983,7 +13967,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B134" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -14013,7 +13997,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B135" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -14043,7 +14027,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B136" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -14073,7 +14057,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B137" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -14094,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="46" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I137" s="34" cm="1">
         <f t="array" ref="I137" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -14105,7 +14089,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B138" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -14126,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="46" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I138" s="34" cm="1">
         <f t="array" ref="I138" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -14137,7 +14121,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B139" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -14158,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="H139" s="46" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I139" s="34" cm="1">
         <f t="array" ref="I139" xml:space="preserve"> --( SUMPRODUCT( --( co_impactTypes[sector_id] = co_variants[[#This Row],[sector_id]] ) ) &gt;= 1 )</f>
@@ -14169,7 +14153,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B140" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -14199,7 +14183,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B141" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -14229,7 +14213,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B142" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -14259,7 +14243,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B143" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -14289,7 +14273,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B144" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -14319,7 +14303,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B145" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -14349,7 +14333,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B146" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -14379,7 +14363,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B147" s="4">
         <f xml:space="preserve"> ROW( co_variants[[#This Row],[row_id]] ) - ROW( co_variants[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -14409,7 +14393,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="149" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
         <v>37</v>
@@ -14434,12 +14418,12 @@
       <c r="T149" s="17"/>
       <c r="U149" s="17"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B151" s="29" t="s">
         <v>114</v>
       </c>
@@ -14486,7 +14470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -14495,13 +14479,13 @@
         <v>94</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E152" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="F152" s="32" t="s">
         <v>643</v>
-      </c>
-      <c r="F152" s="32" t="s">
-        <v>645</v>
       </c>
       <c r="G152" s="28" t="s">
         <v>260</v>
@@ -14535,7 +14519,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -14544,13 +14528,13 @@
         <v>94</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E153" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="F153" s="32" t="s">
         <v>644</v>
-      </c>
-      <c r="F153" s="32" t="s">
-        <v>646</v>
       </c>
       <c r="G153" s="28" t="s">
         <v>260</v>
@@ -14584,7 +14568,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -14593,28 +14577,28 @@
         <v>94</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E154" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="G154" s="28" t="s">
         <v>651</v>
-      </c>
-      <c r="F154" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="G154" s="28" t="s">
-        <v>653</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I154" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J154" s="32" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K154" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L154" s="28" t="s">
         <v>88</v>
@@ -14633,7 +14617,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -14642,28 +14626,28 @@
         <v>94</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E155" s="47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H155" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J155" s="32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K155" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L155" s="28" t="s">
         <v>89</v>
@@ -14682,7 +14666,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -14691,28 +14675,28 @@
         <v>94</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E156" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="F156" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="F156" s="28" t="s">
-        <v>650</v>
-      </c>
       <c r="G156" s="28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H156" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J156" s="32" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L156" s="28" t="s">
         <v>89</v>
@@ -14731,7 +14715,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -14740,28 +14724,28 @@
         <v>94</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E157" s="47" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J157" s="32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L157" s="28" t="s">
         <v>88</v>
@@ -14780,7 +14764,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -14789,28 +14773,28 @@
         <v>94</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E158" s="47" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H158" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J158" s="32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K158" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L158" s="28" t="s">
         <v>89</v>
@@ -14829,7 +14813,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -14850,7 +14834,7 @@
         <v>532</v>
       </c>
       <c r="H159" s="28" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I159" s="28" t="s">
         <v>88</v>
@@ -14878,7 +14862,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -14927,7 +14911,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -14976,7 +14960,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -15025,7 +15009,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -15074,7 +15058,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -15123,7 +15107,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -15153,7 +15137,7 @@
         <v>88</v>
       </c>
       <c r="K165" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L165" s="28" t="s">
         <v>88</v>
@@ -15172,7 +15156,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -15202,7 +15186,7 @@
         <v>88</v>
       </c>
       <c r="K166" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L166" s="28" t="s">
         <v>88</v>
@@ -15221,7 +15205,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -15270,7 +15254,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -15319,7 +15303,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B169" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -15346,7 +15330,7 @@
         <v>88</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K169" s="28" t="s">
         <v>88</v>
@@ -15368,7 +15352,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -15395,7 +15379,7 @@
         <v>88</v>
       </c>
       <c r="J170" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K170" s="28" t="s">
         <v>88</v>
@@ -15417,7 +15401,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -15441,7 +15425,7 @@
         <v>84</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J171" s="28" t="s">
         <v>88</v>
@@ -15466,7 +15450,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -15490,7 +15474,7 @@
         <v>84</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J172" s="28" t="s">
         <v>88</v>
@@ -15515,13 +15499,13 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>38</v>
@@ -15530,7 +15514,7 @@
         <v>190</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G173" s="28" t="s">
         <v>38</v>
@@ -15564,7 +15548,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -15613,7 +15597,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -15662,7 +15646,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B176" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -15683,7 +15667,7 @@
         <v>533</v>
       </c>
       <c r="H176" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I176" s="28" t="s">
         <v>88</v>
@@ -15692,7 +15676,7 @@
         <v>88</v>
       </c>
       <c r="K176" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L176" s="28" t="s">
         <v>89</v>
@@ -15711,22 +15695,22 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B177" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>26</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D177" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="E177" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="F177" s="32" t="s">
         <v>638</v>
-      </c>
-      <c r="E177" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="F177" s="32" t="s">
-        <v>640</v>
       </c>
       <c r="G177" s="28" t="s">
         <v>38</v>
@@ -15735,7 +15719,7 @@
         <v>84</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>88</v>
@@ -15760,22 +15744,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B178" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F178" s="32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G178" s="28" t="s">
         <v>38</v>
@@ -15784,7 +15768,7 @@
         <v>84</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>88</v>
@@ -15809,13 +15793,13 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>28</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>38</v>
@@ -15824,22 +15808,22 @@
         <v>190</v>
       </c>
       <c r="F179" s="32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H179" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I179" s="32" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K179" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L179" s="28" t="s">
         <v>88</v>
@@ -15858,7 +15842,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -15907,25 +15891,25 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G181" s="28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H181" s="28" t="s">
         <v>88</v>
@@ -15956,25 +15940,25 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B182" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G182" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H182" s="28" t="s">
         <v>88</v>
@@ -16005,25 +15989,25 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>32</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E183" s="47" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G183" s="28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H183" s="28" t="s">
         <v>88</v>
@@ -16054,22 +16038,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E184" s="47" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G184" s="28" t="s">
         <v>38</v>
@@ -16103,22 +16087,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>34</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E185" s="47" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F185" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G185" s="28" t="s">
         <v>38</v>
@@ -16152,22 +16136,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C186" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D186" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="D186" s="28" t="s">
-        <v>599</v>
-      </c>
       <c r="E186" s="47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G186" s="28" t="s">
         <v>38</v>
@@ -16176,13 +16160,13 @@
         <v>84</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J186" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K186" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L186" s="28" t="s">
         <v>88</v>
@@ -16201,22 +16185,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E187" s="47" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F187" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G187" s="28" t="s">
         <v>38</v>
@@ -16225,13 +16209,13 @@
         <v>84</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K187" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L187" s="28" t="s">
         <v>88</v>
@@ -16250,22 +16234,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F188" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G188" s="28" t="s">
         <v>38</v>
@@ -16274,13 +16258,13 @@
         <v>84</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J188" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K188" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L188" s="28" t="s">
         <v>88</v>
@@ -16299,22 +16283,22 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>38</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F189" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G189" s="28" t="s">
         <v>38</v>
@@ -16323,7 +16307,7 @@
         <v>84</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J189" s="28" t="s">
         <v>88</v>
@@ -16348,31 +16332,31 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E190" s="47" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G190" s="28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H190" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J190" s="28" t="s">
         <v>88</v>
@@ -16397,7 +16381,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -16421,10 +16405,10 @@
         <v>84</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K191" s="28" t="s">
         <v>119</v>
@@ -16446,7 +16430,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -16467,13 +16451,13 @@
         <v>52</v>
       </c>
       <c r="H192" s="28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I192" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J192" s="25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K192" s="28" t="s">
         <v>88</v>
@@ -16495,7 +16479,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -16516,13 +16500,13 @@
         <v>126</v>
       </c>
       <c r="H193" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I193" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J193" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K193" s="28" t="s">
         <v>88</v>
@@ -16544,7 +16528,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B194" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -16568,13 +16552,13 @@
         <v>84</v>
       </c>
       <c r="I194" s="32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J194" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K194" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L194" s="28" t="s">
         <v>88</v>
@@ -16593,7 +16577,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B195" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -16617,13 +16601,13 @@
         <v>84</v>
       </c>
       <c r="I195" s="32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J195" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K195" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L195" s="28" t="s">
         <v>88</v>
@@ -16642,7 +16626,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B196" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -16666,7 +16650,7 @@
         <v>84</v>
       </c>
       <c r="I196" s="32" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J196" s="28" t="s">
         <v>88</v>
@@ -16691,7 +16675,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="197" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B197" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -16715,13 +16699,13 @@
         <v>84</v>
       </c>
       <c r="I197" s="32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K197" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L197" s="28" t="s">
         <v>88</v>
@@ -16740,7 +16724,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -16764,13 +16748,13 @@
         <v>84</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K198" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L198" s="28" t="s">
         <v>88</v>
@@ -16789,7 +16773,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B199" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -16798,28 +16782,28 @@
         <v>20</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E199" s="47" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G199" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H199" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I199" s="32" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J199" s="32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K199" s="32" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L199" s="28" t="s">
         <v>89</v>
@@ -16838,7 +16822,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="200" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B200" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -16888,7 +16872,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -16912,13 +16896,13 @@
         <v>84</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K201" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L201" s="28" t="s">
         <v>89</v>
@@ -16937,7 +16921,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -16961,13 +16945,13 @@
         <v>84</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K202" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L202" s="28" t="s">
         <v>88</v>
@@ -16986,7 +16970,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -17010,10 +16994,10 @@
         <v>84</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K203" s="28" t="s">
         <v>119</v>
@@ -17035,7 +17019,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -17084,7 +17068,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -17114,7 +17098,7 @@
         <v>88</v>
       </c>
       <c r="K205" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L205" s="28" t="s">
         <v>89</v>
@@ -17133,7 +17117,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -17182,7 +17166,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -17231,7 +17215,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:16" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B208" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -17240,13 +17224,13 @@
         <v>97</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E208" s="47" t="s">
         <v>104</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G208" s="28" t="s">
         <v>537</v>
@@ -17280,7 +17264,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B209" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -17329,7 +17313,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B210" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -17359,7 +17343,7 @@
         <v>88</v>
       </c>
       <c r="K210" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L210" s="28" t="s">
         <v>88</v>
@@ -17378,7 +17362,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B211" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -17387,28 +17371,28 @@
         <v>97</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E211" s="47" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F211" s="32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H211" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J211" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K211" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L211" s="28" t="s">
         <v>89</v>
@@ -17427,7 +17411,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B212" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -17476,7 +17460,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B213" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -17500,7 +17484,7 @@
         <v>84</v>
       </c>
       <c r="I213" s="32" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J213" s="28" t="s">
         <v>88</v>
@@ -17525,7 +17509,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B214" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -17549,7 +17533,7 @@
         <v>84</v>
       </c>
       <c r="I214" s="32" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J214" s="28" t="s">
         <v>88</v>
@@ -17574,7 +17558,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B215" s="4">
         <f xml:space="preserve"> ROW( co_impactTypes[[#This Row],[row_id]] ) - ROW(co_impactTypes[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -17598,7 +17582,7 @@
         <v>84</v>
       </c>
       <c r="I215" s="32" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J215" s="28" t="s">
         <v>88</v>
@@ -17623,7 +17607,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" s="16"/>
       <c r="B218" s="17" t="s">
         <v>327</v>
@@ -17648,7 +17632,7 @@
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
     </row>
-    <row r="220" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B220" s="29" t="s">
         <v>114</v>
       </c>
@@ -17680,16 +17664,16 @@
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B221" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E221" s="80" t="s">
         <v>141</v>
@@ -17707,22 +17691,22 @@
         <v>174</v>
       </c>
       <c r="J221" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P221" s="5"/>
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
     </row>
-    <row r="222" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B222" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E222" s="80" t="s">
         <v>141</v>
@@ -17740,22 +17724,22 @@
         <v>174</v>
       </c>
       <c r="J222" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P222" s="5"/>
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
     </row>
-    <row r="223" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B223" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E223" s="80" t="s">
         <v>141</v>
@@ -17773,22 +17757,22 @@
         <v>174</v>
       </c>
       <c r="J223" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P223" s="5"/>
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
     </row>
-    <row r="224" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B224" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E224" s="80" t="s">
         <v>141</v>
@@ -17806,22 +17790,22 @@
         <v>174</v>
       </c>
       <c r="J224" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P224" s="5"/>
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
     </row>
-    <row r="225" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B225" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>5</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E225" s="80" t="s">
         <v>141</v>
@@ -17839,19 +17823,19 @@
         <v>174</v>
       </c>
       <c r="J225" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P225" s="5"/>
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
     </row>
-    <row r="226" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B226" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>6</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D226" s="26" t="s">
         <v>90</v>
@@ -17872,19 +17856,19 @@
         <v>174</v>
       </c>
       <c r="J226" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P226"/>
       <c r="Q226"/>
       <c r="R226"/>
     </row>
-    <row r="227" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B227" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>7</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D227" s="26" t="s">
         <v>127</v>
@@ -17909,16 +17893,16 @@
       <c r="Q227"/>
       <c r="R227"/>
     </row>
-    <row r="228" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B228" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>8</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E228" s="80" t="s">
         <v>141</v>
@@ -17940,16 +17924,16 @@
       <c r="Q228"/>
       <c r="R228"/>
     </row>
-    <row r="229" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B229" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>9</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E229" s="80" t="s">
         <v>141</v>
@@ -17971,7 +17955,7 @@
       <c r="Q229"/>
       <c r="R229"/>
     </row>
-    <row r="230" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B230" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -18004,13 +17988,13 @@
       <c r="Q230"/>
       <c r="R230"/>
     </row>
-    <row r="231" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B231" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>11</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>128</v>
@@ -18035,13 +18019,13 @@
       <c r="Q231"/>
       <c r="R231"/>
     </row>
-    <row r="232" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B232" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>12</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>538</v>
@@ -18062,19 +18046,19 @@
         <v>174</v>
       </c>
       <c r="J232" s="65" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P232"/>
       <c r="Q232"/>
       <c r="R232"/>
     </row>
-    <row r="233" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B233" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>13</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>539</v>
@@ -18095,19 +18079,19 @@
         <v>174</v>
       </c>
       <c r="J233" s="65" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P233"/>
       <c r="Q233"/>
       <c r="R233"/>
     </row>
-    <row r="234" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B234" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>14</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>540</v>
@@ -18128,22 +18112,22 @@
         <v>174</v>
       </c>
       <c r="J234" s="65" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P234"/>
       <c r="Q234"/>
       <c r="R234"/>
     </row>
-    <row r="235" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B235" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>15</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E235" s="80" t="s">
         <v>141</v>
@@ -18161,22 +18145,22 @@
         <v>174</v>
       </c>
       <c r="J235" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P235"/>
       <c r="Q235"/>
       <c r="R235"/>
     </row>
-    <row r="236" spans="2:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B236" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>16</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E236" s="80" t="s">
         <v>141</v>
@@ -18194,22 +18178,22 @@
         <v>174</v>
       </c>
       <c r="J236" s="65" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P236"/>
       <c r="Q236"/>
       <c r="R236"/>
     </row>
-    <row r="237" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B237" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>17</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E237" s="80" t="s">
         <v>140</v>
@@ -18231,16 +18215,16 @@
       <c r="Q237"/>
       <c r="R237"/>
     </row>
-    <row r="238" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B238" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>18</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E238" s="80" t="s">
         <v>140</v>
@@ -18262,16 +18246,16 @@
       <c r="Q238"/>
       <c r="R238"/>
     </row>
-    <row r="239" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B239" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>19</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E239" s="80" t="s">
         <v>140</v>
@@ -18293,13 +18277,13 @@
       <c r="Q239"/>
       <c r="R239"/>
     </row>
-    <row r="240" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B240" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>20</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D240" s="26" t="s">
         <v>240</v>
@@ -18324,16 +18308,16 @@
       <c r="Q240"/>
       <c r="R240"/>
     </row>
-    <row r="241" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B241" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>21</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E241" s="80" t="s">
         <v>140</v>
@@ -18355,16 +18339,16 @@
       <c r="Q241"/>
       <c r="R241"/>
     </row>
-    <row r="242" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B242" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>22</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E242" s="80" t="s">
         <v>140</v>
@@ -18380,19 +18364,19 @@
         <v>176</v>
       </c>
       <c r="J242" s="65" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P242"/>
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B243" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>23</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D243" s="26" t="s">
         <v>102</v>
@@ -18417,13 +18401,13 @@
       <c r="Q243"/>
       <c r="R243"/>
     </row>
-    <row r="244" spans="2:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B244" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>24</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D244" s="26" t="s">
         <v>122</v>
@@ -18448,13 +18432,13 @@
       <c r="Q244"/>
       <c r="R244"/>
     </row>
-    <row r="245" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B245" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>25</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D245" s="26" t="s">
         <v>120</v>
@@ -18476,13 +18460,13 @@
       </c>
       <c r="J245" s="65"/>
     </row>
-    <row r="246" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B246" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>26</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D246" s="26" t="s">
         <v>121</v>
@@ -18504,16 +18488,16 @@
       </c>
       <c r="J246" s="65"/>
     </row>
-    <row r="247" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B247" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>27</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E247" s="80" t="s">
         <v>140</v>
@@ -18532,7 +18516,7 @@
       </c>
       <c r="J247" s="65"/>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -18562,13 +18546,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B249" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>29</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D249" s="26" t="s">
         <v>342</v>
@@ -18588,16 +18572,16 @@
       <c r="I249" s="48"/>
       <c r="J249" s="65"/>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B250" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>30</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E250" s="80" t="s">
         <v>140</v>
@@ -18616,16 +18600,16 @@
       </c>
       <c r="J250" s="65"/>
     </row>
-    <row r="251" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B251" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>31</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E251" s="80" t="s">
         <v>140</v>
@@ -18644,13 +18628,13 @@
       </c>
       <c r="J251" s="65"/>
     </row>
-    <row r="252" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B252" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>32</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>241</v>
@@ -18672,13 +18656,13 @@
       </c>
       <c r="J252" s="65"/>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B253" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>33</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D253" s="26" t="s">
         <v>343</v>
@@ -18698,7 +18682,7 @@
       <c r="I253" s="48"/>
       <c r="J253" s="65"/>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B254" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -18726,16 +18710,16 @@
       </c>
       <c r="J254" s="65"/>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B255" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>35</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E255" s="80" t="s">
         <v>140</v>
@@ -18754,16 +18738,16 @@
       </c>
       <c r="J255" s="65"/>
     </row>
-    <row r="256" spans="2:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:18" ht="21" x14ac:dyDescent="0.3">
       <c r="B256" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>36</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E256" s="80" t="s">
         <v>140</v>
@@ -18782,13 +18766,13 @@
       </c>
       <c r="J256" s="65"/>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B257" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>37</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>105</v>
@@ -18810,7 +18794,7 @@
       </c>
       <c r="J257" s="65"/>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B258" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -18840,13 +18824,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B259" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>39</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D259" s="26" t="s">
         <v>238</v>
@@ -18868,13 +18852,13 @@
       </c>
       <c r="J259" s="65"/>
     </row>
-    <row r="260" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B260" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>40</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D260" s="26" t="s">
         <v>237</v>
@@ -18896,13 +18880,13 @@
       </c>
       <c r="J260" s="65"/>
     </row>
-    <row r="261" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B261" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>41</v>
       </c>
       <c r="C261" s="32" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D261" s="26" t="s">
         <v>239</v>
@@ -18924,13 +18908,13 @@
       </c>
       <c r="J261" s="65"/>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B262" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>42</v>
       </c>
       <c r="C262" s="32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D262" s="26" t="s">
         <v>255</v>
@@ -18952,13 +18936,13 @@
       </c>
       <c r="J262" s="65"/>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B263" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>43</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D263" s="26" t="s">
         <v>95</v>
@@ -18980,7 +18964,7 @@
       </c>
       <c r="J263" s="65"/>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B264" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -19010,13 +18994,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B265" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>45</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D265" s="26" t="s">
         <v>52</v>
@@ -19038,13 +19022,13 @@
       </c>
       <c r="J265" s="65"/>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B266" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>46</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D266" s="26" t="s">
         <v>48</v>
@@ -19066,13 +19050,13 @@
       </c>
       <c r="J266" s="65"/>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B267" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>47</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D267" s="26" t="s">
         <v>126</v>
@@ -19094,16 +19078,16 @@
       </c>
       <c r="J267" s="65"/>
     </row>
-    <row r="268" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B268" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>48</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E268" s="80" t="s">
         <v>157</v>
@@ -19122,16 +19106,16 @@
       </c>
       <c r="J268" s="65"/>
     </row>
-    <row r="269" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:10" ht="42" x14ac:dyDescent="0.3">
       <c r="B269" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>49</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E269" s="80" t="s">
         <v>157</v>
@@ -19150,16 +19134,16 @@
       </c>
       <c r="J269" s="65"/>
     </row>
-    <row r="270" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B270" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>50</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E270" s="80" t="s">
         <v>157</v>
@@ -19178,16 +19162,16 @@
       </c>
       <c r="J270" s="65"/>
     </row>
-    <row r="271" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B271" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>51</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E271" s="80" t="s">
         <v>157</v>
@@ -19206,16 +19190,16 @@
       </c>
       <c r="J271" s="65"/>
     </row>
-    <row r="272" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:10" ht="42" x14ac:dyDescent="0.3">
       <c r="B272" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>52</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E272" s="80" t="s">
         <v>157</v>
@@ -19234,16 +19218,16 @@
       </c>
       <c r="J272" s="65"/>
     </row>
-    <row r="273" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="42" x14ac:dyDescent="0.3">
       <c r="B273" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>53</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E273" s="80" t="s">
         <v>157</v>
@@ -19262,16 +19246,16 @@
       </c>
       <c r="J273" s="65"/>
     </row>
-    <row r="274" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B274" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>54</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E274" s="80" t="s">
         <v>157</v>
@@ -19290,16 +19274,16 @@
       </c>
       <c r="J274" s="65"/>
     </row>
-    <row r="275" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B275" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>55</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E275" s="80" t="s">
         <v>157</v>
@@ -19318,16 +19302,16 @@
       </c>
       <c r="J275" s="65"/>
     </row>
-    <row r="276" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B276" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>56</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E276" s="80" t="s">
         <v>157</v>
@@ -19346,16 +19330,16 @@
       </c>
       <c r="J276" s="65"/>
     </row>
-    <row r="277" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B277" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>57</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E277" s="80" t="s">
         <v>157</v>
@@ -19374,16 +19358,16 @@
       </c>
       <c r="J277" s="65"/>
     </row>
-    <row r="278" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B278" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>58</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E278" s="80" t="s">
         <v>157</v>
@@ -19402,16 +19386,16 @@
       </c>
       <c r="J278" s="65"/>
     </row>
-    <row r="279" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B279" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>59</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E279" s="80" t="s">
         <v>157</v>
@@ -19430,16 +19414,16 @@
       </c>
       <c r="J279" s="65"/>
     </row>
-    <row r="280" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B280" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>60</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E280" s="80" t="s">
         <v>157</v>
@@ -19458,16 +19442,16 @@
       </c>
       <c r="J280" s="65"/>
     </row>
-    <row r="281" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B281" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>61</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E281" s="80" t="s">
         <v>157</v>
@@ -19486,13 +19470,13 @@
       </c>
       <c r="J281" s="65"/>
     </row>
-    <row r="282" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B282" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>62</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D282" s="26" t="s">
         <v>409</v>
@@ -19512,13 +19496,13 @@
       <c r="I282" s="48"/>
       <c r="J282" s="65"/>
     </row>
-    <row r="283" spans="1:21" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="21" x14ac:dyDescent="0.3">
       <c r="B283" s="6">
         <f xml:space="preserve"> ROW( co_scalarInfo[[#This Row],[row_id]] ) - ROW( co_scalarInfo[[#Headers],[row_id]] )</f>
         <v>63</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D283" s="26" t="s">
         <v>410</v>
@@ -19538,7 +19522,7 @@
       <c r="I283" s="48"/>
       <c r="J283" s="65"/>
     </row>
-    <row r="286" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A286" s="16"/>
       <c r="B286" s="17" t="s">
         <v>267</v>
@@ -19563,7 +19547,7 @@
       <c r="T286" s="17"/>
       <c r="U286" s="17"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B288" s="29" t="s">
         <v>114</v>
       </c>
@@ -19577,7 +19561,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B289" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19592,7 +19576,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B290" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19607,7 +19591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B291" s="4">
         <f xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19622,7 +19606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16"/>
       <c r="B294" s="17" t="s">
         <v>268</v>
@@ -19647,7 +19631,7 @@
       <c r="T294" s="17"/>
       <c r="U294" s="17"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B296" s="29" t="s">
         <v>114</v>
       </c>
@@ -19658,7 +19642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B297" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19671,7 +19655,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B298" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19684,7 +19668,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B299" s="4">
         <f xml:space="preserve"> ROW( co_constants[[#This Row],[row_id]] ) - ROW( co_constants[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -19696,7 +19680,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="302" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A302" s="16"/>
       <c r="B302" s="17" t="s">
         <v>517</v>
@@ -19721,12 +19705,12 @@
       <c r="T302" s="17"/>
       <c r="U302" s="17"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B305" s="43" t="s">
         <v>114</v>
       </c>
@@ -19755,7 +19739,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B306" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19785,7 +19769,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B307" s="4">
         <f xml:space="preserve"> ROW( co_slrScalars[[#This Row],[row_id]] ) - ROW( co_slrScalars[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19815,7 +19799,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="309" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A309" s="16"/>
       <c r="B309" s="17" t="s">
         <v>265</v>
@@ -19840,7 +19824,7 @@
       <c r="T309" s="17"/>
       <c r="U309" s="17"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B311" s="37" t="s">
         <v>114</v>
       </c>
@@ -19875,7 +19859,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B312" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -19911,7 +19895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B313" s="4">
         <f xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -19941,13 +19925,13 @@
         <v>2000</v>
       </c>
       <c r="K313" s="42">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L313" s="42">
         <v>1000</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A316" s="16"/>
       <c r="B316" s="17" t="s">
         <v>542</v>
@@ -19972,7 +19956,7 @@
       <c r="T316" s="17"/>
       <c r="U316" s="17"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B318" s="43" t="s">
         <v>114</v>
       </c>
@@ -19989,7 +19973,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B319" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -20008,7 +19992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B320" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -20027,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B321" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -20046,7 +20030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B322" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -20065,7 +20049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B323" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -20084,7 +20068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B324" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -20103,7 +20087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B325" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -20122,7 +20106,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B326" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -20141,7 +20125,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B327" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -20160,7 +20144,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B328" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -20179,7 +20163,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B329" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -20198,7 +20182,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B330" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -20217,7 +20201,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B331" s="4">
         <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -20236,151 +20220,163 @@
         <v>547</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B332" s="4">
-        <f xml:space="preserve"> ROW( co_models[[#This Row],[row_id]] ) - ROW( co_models[[#Headers],[row_id]] )</f>
-        <v>14</v>
-      </c>
-      <c r="C332" s="89" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( SUBSTITUTE( co_models[[#This Row],[model_label]], " ", "" ), "-", "" )</f>
-        <v>250cm</v>
-      </c>
-      <c r="D332" s="44">
-        <v>250</v>
-      </c>
-      <c r="E332" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F332" s="86" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="335" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A335" s="16"/>
-      <c r="B335" s="17" t="s">
+    <row r="334" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A334" s="16"/>
+      <c r="B334" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C335" s="17"/>
-      <c r="D335" s="17"/>
-      <c r="E335" s="17"/>
-      <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="17"/>
-      <c r="I335" s="17"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="17"/>
-      <c r="L335" s="17"/>
-      <c r="M335" s="17"/>
-      <c r="N335" s="17"/>
-      <c r="O335" s="17"/>
-      <c r="P335" s="17"/>
-      <c r="Q335" s="17"/>
-      <c r="R335" s="17"/>
-      <c r="S335" s="17"/>
-      <c r="T335" s="17"/>
-      <c r="U335" s="17"/>
-    </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B337" s="29" t="s">
+      <c r="C334" s="17"/>
+      <c r="D334" s="17"/>
+      <c r="E334" s="17"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="17"/>
+      <c r="H334" s="17"/>
+      <c r="I334" s="17"/>
+      <c r="J334" s="17"/>
+      <c r="K334" s="17"/>
+      <c r="L334" s="17"/>
+      <c r="M334" s="17"/>
+      <c r="N334" s="17"/>
+      <c r="O334" s="17"/>
+      <c r="P334" s="17"/>
+      <c r="Q334" s="17"/>
+      <c r="R334" s="17"/>
+      <c r="S334" s="17"/>
+      <c r="T334" s="17"/>
+      <c r="U334" s="17"/>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B336" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C337" s="29" t="s">
+      <c r="C336" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="D337" s="29" t="s">
+      <c r="D336" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E337" s="29" t="s">
+      <c r="E336" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F337" s="31" t="s">
+      <c r="F336" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="G337" s="31" t="s">
+      <c r="G336" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="H337" s="31" t="s">
+      <c r="H336" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I337" s="31" t="s">
+      <c r="I336" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="J337" s="31" t="s">
+      <c r="J336" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B337" s="4">
+        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D337" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E337" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="F337" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G337" s="27">
+        <v>0</v>
+      </c>
+      <c r="H337" s="27"/>
+      <c r="I337" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J337" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B338" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="D338" s="44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E338" s="44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F338" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G338" s="27">
         <v>0</v>
       </c>
       <c r="H338" s="27"/>
       <c r="I338" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J338" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B339" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="D339" s="44" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="E339" s="44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F339" s="27" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="G339" s="27">
         <v>0</v>
       </c>
-      <c r="H339" s="27"/>
+      <c r="H339" s="27" t="str">
+        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
+        <v/>
+      </c>
       <c r="I339" s="27" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="J339" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B340" s="4">
         <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D340" s="44" t="s">
-        <v>287</v>
+        <v>541</v>
       </c>
       <c r="E340" s="44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F340" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G340" s="27">
         <v>0</v>
@@ -20390,1131 +20386,1100 @@
         <v/>
       </c>
       <c r="I340" s="27" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="J340" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B341" s="4">
-        <f xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D341" s="44" t="s">
-        <v>541</v>
-      </c>
-      <c r="E341" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="F341" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="G341" s="27">
-        <v>0</v>
-      </c>
-      <c r="H341" s="27" t="str">
-        <f xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[modelMaxExtrap], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</f>
-        <v/>
-      </c>
-      <c r="I341" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="J341" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A344" s="16"/>
-      <c r="B344" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A343" s="16"/>
+      <c r="B343" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C344" s="17"/>
-      <c r="D344" s="17"/>
-      <c r="E344" s="17"/>
-      <c r="F344" s="17"/>
-      <c r="G344" s="17"/>
-      <c r="H344" s="17"/>
-      <c r="I344" s="17"/>
-      <c r="J344" s="17"/>
-      <c r="K344" s="17"/>
-      <c r="L344" s="17"/>
-      <c r="M344" s="17"/>
-      <c r="N344" s="17"/>
-      <c r="O344" s="17"/>
-      <c r="P344" s="17"/>
-      <c r="Q344" s="17"/>
-      <c r="R344" s="17"/>
-      <c r="S344" s="17"/>
-      <c r="T344" s="17"/>
-      <c r="U344" s="17"/>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B346" s="43" t="s">
+      <c r="C343" s="17"/>
+      <c r="D343" s="17"/>
+      <c r="E343" s="17"/>
+      <c r="F343" s="17"/>
+      <c r="G343" s="17"/>
+      <c r="H343" s="17"/>
+      <c r="I343" s="17"/>
+      <c r="J343" s="17"/>
+      <c r="K343" s="17"/>
+      <c r="L343" s="17"/>
+      <c r="M343" s="17"/>
+      <c r="N343" s="17"/>
+      <c r="O343" s="17"/>
+      <c r="P343" s="17"/>
+      <c r="Q343" s="17"/>
+      <c r="R343" s="17"/>
+      <c r="S343" s="17"/>
+      <c r="T343" s="17"/>
+      <c r="U343" s="17"/>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B345" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C346" s="29" t="s">
+      <c r="C345" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D346" s="30" t="s">
-        <v>562</v>
+      <c r="D345" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B346" s="4">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C346" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" s="30" t="str">
+        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
+        <v>Midwest</v>
       </c>
       <c r="E346" s="2"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B347" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C347" s="44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D347" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Midwest</v>
+        <v>Northeast</v>
       </c>
       <c r="E347" s="2"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B348" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D348" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northeast</v>
+        <v>NorthernPlains</v>
       </c>
       <c r="E348" s="2"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B349" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C349" s="44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D349" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>NorthernPlains</v>
+        <v>Northwest</v>
       </c>
       <c r="E349" s="2"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B350" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C350" s="44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D350" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Northwest</v>
+        <v>Southeast</v>
       </c>
       <c r="E350" s="2"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B351" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C351" s="44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D351" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southeast</v>
+        <v>SouthernPlains</v>
       </c>
       <c r="E351" s="2"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B352" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C352" s="44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D352" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>SouthernPlains</v>
+        <v>Southwest</v>
       </c>
       <c r="E352" s="2"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B353" s="4">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C353" s="44" t="s">
-        <v>12</v>
+        <v>749</v>
       </c>
       <c r="D353" s="30" t="str">
         <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>Southwest</v>
+        <v>National</v>
       </c>
       <c r="E353" s="2"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B354" s="4">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>8</v>
-      </c>
-      <c r="C354" s="44" t="s">
-        <v>751</v>
-      </c>
-      <c r="D354" s="30" t="str">
-        <f xml:space="preserve"> SUBSTITUTE( co_regions[[#This Row],[region_label]], " ", "" )</f>
-        <v>National</v>
-      </c>
-      <c r="E354" s="2"/>
-    </row>
-    <row r="357" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A357" s="16"/>
-      <c r="B357" s="17" t="s">
+    <row r="356" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A356" s="16"/>
+      <c r="B356" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C357" s="17"/>
-      <c r="D357" s="17"/>
-      <c r="E357" s="17"/>
-      <c r="F357" s="17"/>
-      <c r="G357" s="17"/>
-      <c r="H357" s="17"/>
-      <c r="I357" s="17"/>
-      <c r="J357" s="17"/>
-      <c r="K357" s="17"/>
-      <c r="L357" s="17"/>
-      <c r="M357" s="17"/>
-      <c r="N357" s="17"/>
-      <c r="O357" s="17"/>
-      <c r="P357" s="17"/>
-      <c r="Q357" s="17"/>
-      <c r="R357" s="17"/>
-      <c r="S357" s="17"/>
-      <c r="T357" s="17"/>
-      <c r="U357" s="17"/>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B359" s="2" t="s">
+      <c r="C356" s="17"/>
+      <c r="D356" s="17"/>
+      <c r="E356" s="17"/>
+      <c r="F356" s="17"/>
+      <c r="G356" s="17"/>
+      <c r="H356" s="17"/>
+      <c r="I356" s="17"/>
+      <c r="J356" s="17"/>
+      <c r="K356" s="17"/>
+      <c r="L356" s="17"/>
+      <c r="M356" s="17"/>
+      <c r="N356" s="17"/>
+      <c r="O356" s="17"/>
+      <c r="P356" s="17"/>
+      <c r="Q356" s="17"/>
+      <c r="R356" s="17"/>
+      <c r="S356" s="17"/>
+      <c r="T356" s="17"/>
+      <c r="U356" s="17"/>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B358" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D359" s="2" t="s">
+      <c r="D358" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E359" s="2" t="s">
+      <c r="E358" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F359" s="9" t="s">
+      <c r="F358" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B359" s="2">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>1</v>
+      </c>
+      <c r="C359" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="D359" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="E359" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F359" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B360" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C360" s="82" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D360" s="82" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E360" s="82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F360" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B361" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C361" s="82" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D361" s="82" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E361" s="82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F361" s="83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B362" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C362" s="82" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D362" s="82" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E362" s="82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F362" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B363" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C363" s="82" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D363" s="82" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E363" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F363" s="83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B364" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C364" s="82" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D364" s="82" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E364" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F364" s="83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B365" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C365" s="82" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D365" s="82" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E365" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F365" s="83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B366" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C366" s="82" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D366" s="82" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E366" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F366" s="83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B367" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C367" s="82" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D367" s="82" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E367" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F367" s="83">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B368" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C368" s="82" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D368" s="82" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E368" s="82" t="s">
         <v>10</v>
       </c>
       <c r="F368" s="83">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C369" s="82" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D369" s="82" t="s">
-        <v>435</v>
+        <v>47</v>
       </c>
       <c r="E369" s="82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F369" s="83">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C370" s="82" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D370" s="82" t="s">
-        <v>47</v>
+        <v>438</v>
       </c>
       <c r="E370" s="82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F370" s="83">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C371" s="82" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D371" s="82" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E371" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F371" s="83">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C372" s="82" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D372" s="82" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E372" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F372" s="83">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C373" s="82" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D373" s="82" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E373" s="82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F373" s="83">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C374" s="82" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D374" s="82" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E374" s="82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F374" s="83">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C375" s="82" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D375" s="82" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E375" s="82" t="s">
         <v>10</v>
       </c>
       <c r="F375" s="83">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C376" s="82" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D376" s="82" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E376" s="82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F376" s="83">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C377" s="82" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D377" s="82" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E377" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F377" s="83">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C378" s="82" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D378" s="82" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E378" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F378" s="83">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C379" s="82" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D379" s="82" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E379" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F379" s="83">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C380" s="82" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D380" s="82" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E380" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F380" s="83">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C381" s="82" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D381" s="82" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E381" s="82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F381" s="83">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C382" s="82" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D382" s="82" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E382" s="82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F382" s="83">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C383" s="82" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D383" s="82" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E383" s="82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F383" s="83">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C384" s="82" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D384" s="82" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E384" s="82" t="s">
         <v>8</v>
       </c>
       <c r="F384" s="83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C385" s="82" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D385" s="82" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E385" s="82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F385" s="83">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C386" s="82" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D386" s="82" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E386" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F386" s="83">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C387" s="82" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D387" s="82" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E387" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F387" s="83">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C388" s="82" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D388" s="82" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E388" s="82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F388" s="83">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C389" s="82" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D389" s="82" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E389" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F389" s="83">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C390" s="82" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D390" s="82" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E390" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F390" s="83">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C391" s="82" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D391" s="82" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E391" s="82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F391" s="83">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C392" s="82" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D392" s="82" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E392" s="82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F392" s="83">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C393" s="82" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D393" s="82" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E393" s="82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F393" s="83">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C394" s="82" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D394" s="82" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E394" s="82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F394" s="83">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C395" s="82" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D395" s="82" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E395" s="82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F395" s="83">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C396" s="82" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D396" s="82" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E396" s="82" t="s">
         <v>7</v>
       </c>
       <c r="F396" s="83">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C397" s="82" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D397" s="82" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E397" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F397" s="83">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C398" s="82" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D398" s="82" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E398" s="82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F398" s="83">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C399" s="82" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D399" s="82" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E399" s="82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F399" s="83">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C400" s="82" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D400" s="82" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E400" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F400" s="83">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C401" s="82" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D401" s="82" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E401" s="82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F401" s="83">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C402" s="82" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D402" s="82" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E402" s="82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F402" s="83">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C403" s="82" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D403" s="82" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E403" s="82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F403" s="83">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C404" s="82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D404" s="82" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E404" s="82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F404" s="83">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C405" s="82" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D405" s="82" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E405" s="82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F405" s="83">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C406" s="82" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D406" s="82" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E406" s="82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F406" s="83">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C407" s="82" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D407" s="82" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E407" s="82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F407" s="83">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408" s="2">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C408" s="82" t="s">
-        <v>511</v>
+        <v>749</v>
       </c>
       <c r="D408" s="82" t="s">
-        <v>512</v>
+        <v>750</v>
       </c>
       <c r="E408" s="82" t="s">
-        <v>8</v>
+        <v>749</v>
       </c>
       <c r="F408" s="83">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B409" s="2">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>50</v>
-      </c>
-      <c r="C409" s="82" t="s">
-        <v>751</v>
-      </c>
-      <c r="D409" s="82" t="s">
-        <v>752</v>
-      </c>
-      <c r="E409" s="82" t="s">
-        <v>751</v>
-      </c>
-      <c r="F409" s="83">
         <v>0</v>
       </c>
     </row>
@@ -21586,19 +21551,19 @@
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="61" t="s">
         <v>114</v>
       </c>
@@ -21615,7 +21580,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21633,7 +21598,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="62">
         <f xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21651,12 +21616,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>114</v>
       </c>
@@ -21670,7 +21635,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21685,7 +21650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21700,7 +21665,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21715,7 +21680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21730,7 +21695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21745,7 +21710,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <f xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21780,15 +21745,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -21796,10 +21761,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
@@ -21813,7 +21778,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -21828,7 +21793,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -21843,7 +21808,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -21858,7 +21823,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -21873,7 +21838,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -21888,7 +21853,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -21903,7 +21868,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -21918,7 +21883,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -21933,7 +21898,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -21948,7 +21913,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -21963,7 +21928,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -21978,7 +21943,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -21993,7 +21958,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22008,7 +21973,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22023,7 +21988,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22038,7 +22003,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22053,7 +22018,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22068,7 +22033,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22083,7 +22048,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22098,7 +22063,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22113,7 +22078,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22128,7 +22093,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22143,7 +22108,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22158,7 +22123,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="42" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22173,7 +22138,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f xml:space="preserve"> ROW( testDev[[#This Row],[row_id]] ) - ROW(testDev[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22202,15 +22167,15 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -22218,28 +22183,25 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>550</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>551</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>552</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>553</v>
       </c>
-      <c r="H1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>1</v>
@@ -22265,11 +22227,8 @@
       <c r="H2" s="87">
         <v>0</v>
       </c>
-      <c r="I2" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>2</v>
@@ -22295,11 +22254,8 @@
       <c r="H3" s="87">
         <v>0.5</v>
       </c>
-      <c r="I3" s="87">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>3</v>
@@ -22325,11 +22281,8 @@
       <c r="H4" s="87">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>4</v>
@@ -22355,11 +22308,8 @@
       <c r="H5" s="87">
         <v>1.5</v>
       </c>
-      <c r="I5" s="87">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>5</v>
@@ -22385,11 +22335,8 @@
       <c r="H6" s="87">
         <v>2</v>
       </c>
-      <c r="I6" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>6</v>
@@ -22415,11 +22362,8 @@
       <c r="H7" s="87">
         <v>2.5</v>
       </c>
-      <c r="I7" s="87">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>7</v>
@@ -22445,11 +22389,8 @@
       <c r="H8" s="87">
         <v>3</v>
       </c>
-      <c r="I8" s="87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>8</v>
@@ -22475,11 +22416,8 @@
       <c r="H9" s="87">
         <v>3.5</v>
       </c>
-      <c r="I9" s="87">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>9</v>
@@ -22505,11 +22443,8 @@
       <c r="H10" s="87">
         <v>4</v>
       </c>
-      <c r="I10" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>10</v>
@@ -22535,11 +22470,8 @@
       <c r="H11" s="87">
         <v>4.5</v>
       </c>
-      <c r="I11" s="87">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>11</v>
@@ -22565,11 +22497,8 @@
       <c r="H12" s="87">
         <v>5</v>
       </c>
-      <c r="I12" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>12</v>
@@ -22595,11 +22524,8 @@
       <c r="H13" s="87">
         <v>5.6</v>
       </c>
-      <c r="I13" s="87">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>13</v>
@@ -22625,11 +22551,8 @@
       <c r="H14" s="87">
         <v>6.2</v>
       </c>
-      <c r="I14" s="87">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>14</v>
@@ -22655,11 +22578,8 @@
       <c r="H15" s="87">
         <v>6.8</v>
       </c>
-      <c r="I15" s="87">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>15</v>
@@ -22685,11 +22605,8 @@
       <c r="H16" s="87">
         <v>7.4</v>
       </c>
-      <c r="I16" s="87">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>16</v>
@@ -22715,11 +22632,8 @@
       <c r="H17" s="87">
         <v>8</v>
       </c>
-      <c r="I17" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>17</v>
@@ -22745,11 +22659,8 @@
       <c r="H18" s="87">
         <v>8.6</v>
       </c>
-      <c r="I18" s="87">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>18</v>
@@ -22775,11 +22686,8 @@
       <c r="H19" s="87">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I19" s="87">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>19</v>
@@ -22805,11 +22713,8 @@
       <c r="H20" s="87">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I20" s="87">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>20</v>
@@ -22835,11 +22740,8 @@
       <c r="H21" s="87">
         <v>10.4</v>
       </c>
-      <c r="I21" s="87">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>21</v>
@@ -22865,11 +22767,8 @@
       <c r="H22" s="87">
         <v>11</v>
       </c>
-      <c r="I22" s="87">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>22</v>
@@ -22895,11 +22794,8 @@
       <c r="H23" s="87">
         <v>12</v>
       </c>
-      <c r="I23" s="87">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>23</v>
@@ -22925,11 +22821,8 @@
       <c r="H24" s="87">
         <v>13</v>
       </c>
-      <c r="I24" s="87">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>24</v>
@@ -22955,11 +22848,8 @@
       <c r="H25" s="87">
         <v>14</v>
       </c>
-      <c r="I25" s="87">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>25</v>
@@ -22985,11 +22875,8 @@
       <c r="H26" s="87">
         <v>15</v>
       </c>
-      <c r="I26" s="87">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>26</v>
@@ -23015,11 +22902,8 @@
       <c r="H27" s="87">
         <v>16</v>
       </c>
-      <c r="I27" s="87">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>27</v>
@@ -23045,11 +22929,8 @@
       <c r="H28" s="87">
         <v>17</v>
       </c>
-      <c r="I28" s="87">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>28</v>
@@ -23075,11 +22956,8 @@
       <c r="H29" s="87">
         <v>18</v>
       </c>
-      <c r="I29" s="87">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>29</v>
@@ -23105,11 +22983,8 @@
       <c r="H30" s="87">
         <v>19</v>
       </c>
-      <c r="I30" s="87">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>30</v>
@@ -23135,11 +23010,8 @@
       <c r="H31" s="87">
         <v>20</v>
       </c>
-      <c r="I31" s="87">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>31</v>
@@ -23165,11 +23037,8 @@
       <c r="H32" s="87">
         <v>21</v>
       </c>
-      <c r="I32" s="87">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>32</v>
@@ -23195,11 +23064,8 @@
       <c r="H33" s="87">
         <v>22.5</v>
       </c>
-      <c r="I33" s="87">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>33</v>
@@ -23225,11 +23091,8 @@
       <c r="H34" s="87">
         <v>24</v>
       </c>
-      <c r="I34" s="87">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>34</v>
@@ -23255,11 +23118,8 @@
       <c r="H35" s="87">
         <v>25.5</v>
       </c>
-      <c r="I35" s="87">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>35</v>
@@ -23285,11 +23145,8 @@
       <c r="H36" s="87">
         <v>27</v>
       </c>
-      <c r="I36" s="87">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>36</v>
@@ -23315,11 +23172,8 @@
       <c r="H37" s="87">
         <v>28.5</v>
       </c>
-      <c r="I37" s="87">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>37</v>
@@ -23345,11 +23199,8 @@
       <c r="H38" s="87">
         <v>30</v>
       </c>
-      <c r="I38" s="87">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>38</v>
@@ -23375,11 +23226,8 @@
       <c r="H39" s="87">
         <v>31.5</v>
       </c>
-      <c r="I39" s="87">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>39</v>
@@ -23405,11 +23253,8 @@
       <c r="H40" s="87">
         <v>33</v>
       </c>
-      <c r="I40" s="87">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>40</v>
@@ -23435,11 +23280,8 @@
       <c r="H41" s="87">
         <v>34.5</v>
       </c>
-      <c r="I41" s="87">
-        <v>39.299999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>41</v>
@@ -23465,11 +23307,8 @@
       <c r="H42" s="87">
         <v>36</v>
       </c>
-      <c r="I42" s="87">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>42</v>
@@ -23495,11 +23334,8 @@
       <c r="H43" s="87">
         <v>37.799999999999997</v>
       </c>
-      <c r="I43" s="87">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>43</v>
@@ -23525,11 +23361,8 @@
       <c r="H44" s="87">
         <v>39.6</v>
       </c>
-      <c r="I44" s="87">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>44</v>
@@ -23555,11 +23388,8 @@
       <c r="H45" s="87">
         <v>41.4</v>
       </c>
-      <c r="I45" s="87">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>45</v>
@@ -23585,11 +23415,8 @@
       <c r="H46" s="87">
         <v>43.2</v>
       </c>
-      <c r="I46" s="87">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>46</v>
@@ -23615,11 +23442,8 @@
       <c r="H47" s="87">
         <v>45</v>
       </c>
-      <c r="I47" s="87">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>47</v>
@@ -23645,11 +23469,8 @@
       <c r="H48" s="87">
         <v>46.8</v>
       </c>
-      <c r="I48" s="87">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>48</v>
@@ -23675,11 +23496,8 @@
       <c r="H49" s="87">
         <v>48.6</v>
       </c>
-      <c r="I49" s="87">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>49</v>
@@ -23705,11 +23523,8 @@
       <c r="H50" s="87">
         <v>50.4</v>
       </c>
-      <c r="I50" s="87">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>50</v>
@@ -23735,11 +23550,8 @@
       <c r="H51" s="87">
         <v>52.2</v>
       </c>
-      <c r="I51" s="87">
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>51</v>
@@ -23765,11 +23577,8 @@
       <c r="H52" s="87">
         <v>54</v>
       </c>
-      <c r="I52" s="87">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>52</v>
@@ -23795,11 +23604,8 @@
       <c r="H53" s="87">
         <v>56.3</v>
       </c>
-      <c r="I53" s="87">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>53</v>
@@ -23825,11 +23631,8 @@
       <c r="H54" s="87">
         <v>58.6</v>
       </c>
-      <c r="I54" s="87">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>54</v>
@@ -23855,11 +23658,8 @@
       <c r="H55" s="87">
         <v>60.9</v>
       </c>
-      <c r="I55" s="87">
-        <v>71.099999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>55</v>
@@ -23885,11 +23685,8 @@
       <c r="H56" s="87">
         <v>63.2</v>
       </c>
-      <c r="I56" s="87">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>56</v>
@@ -23915,11 +23712,8 @@
       <c r="H57" s="87">
         <v>65.5</v>
       </c>
-      <c r="I57" s="87">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>57</v>
@@ -23945,11 +23739,8 @@
       <c r="H58" s="87">
         <v>67.8</v>
       </c>
-      <c r="I58" s="87">
-        <v>79.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>58</v>
@@ -23975,11 +23766,8 @@
       <c r="H59" s="87">
         <v>70.099999999999994</v>
       </c>
-      <c r="I59" s="87">
-        <v>81.900000000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>59</v>
@@ -24005,11 +23793,8 @@
       <c r="H60" s="87">
         <v>72.400000000000006</v>
       </c>
-      <c r="I60" s="87">
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>60</v>
@@ -24035,11 +23820,8 @@
       <c r="H61" s="87">
         <v>74.7</v>
       </c>
-      <c r="I61" s="87">
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>61</v>
@@ -24065,11 +23847,8 @@
       <c r="H62" s="87">
         <v>77</v>
       </c>
-      <c r="I62" s="87">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>62</v>
@@ -24095,11 +23874,8 @@
       <c r="H63" s="87">
         <v>79.3</v>
       </c>
-      <c r="I63" s="87">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>63</v>
@@ -24125,11 +23901,8 @@
       <c r="H64" s="87">
         <v>81.599999999999994</v>
       </c>
-      <c r="I64" s="87">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>64</v>
@@ -24155,11 +23928,8 @@
       <c r="H65" s="87">
         <v>83.9</v>
       </c>
-      <c r="I65" s="87">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>65</v>
@@ -24185,11 +23955,8 @@
       <c r="H66" s="87">
         <v>86.2</v>
       </c>
-      <c r="I66" s="87">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>66</v>
@@ -24215,11 +23982,8 @@
       <c r="H67" s="87">
         <v>88.5</v>
       </c>
-      <c r="I67" s="87">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>67</v>
@@ -24245,11 +24009,8 @@
       <c r="H68" s="87">
         <v>90.8</v>
       </c>
-      <c r="I68" s="87">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>68</v>
@@ -24275,11 +24036,8 @@
       <c r="H69" s="87">
         <v>93.1</v>
       </c>
-      <c r="I69" s="87">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>69</v>
@@ -24305,11 +24063,8 @@
       <c r="H70" s="87">
         <v>95.4</v>
       </c>
-      <c r="I70" s="87">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>70</v>
@@ -24335,11 +24090,8 @@
       <c r="H71" s="87">
         <v>97.7</v>
       </c>
-      <c r="I71" s="87">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>71</v>
@@ -24365,11 +24117,8 @@
       <c r="H72" s="87">
         <v>100</v>
       </c>
-      <c r="I72" s="87">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>72</v>
@@ -24395,11 +24144,8 @@
       <c r="H73" s="87">
         <v>103</v>
       </c>
-      <c r="I73" s="87">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>73</v>
@@ -24425,11 +24171,8 @@
       <c r="H74" s="87">
         <v>106</v>
       </c>
-      <c r="I74" s="87">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>74</v>
@@ -24455,11 +24198,8 @@
       <c r="H75" s="87">
         <v>109</v>
       </c>
-      <c r="I75" s="87">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>75</v>
@@ -24485,11 +24225,8 @@
       <c r="H76" s="87">
         <v>112</v>
       </c>
-      <c r="I76" s="87">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>76</v>
@@ -24515,11 +24252,8 @@
       <c r="H77" s="87">
         <v>115</v>
       </c>
-      <c r="I77" s="87">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>77</v>
@@ -24545,11 +24279,8 @@
       <c r="H78" s="87">
         <v>118</v>
       </c>
-      <c r="I78" s="87">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>78</v>
@@ -24575,11 +24306,8 @@
       <c r="H79" s="87">
         <v>121</v>
       </c>
-      <c r="I79" s="87">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>79</v>
@@ -24605,11 +24333,8 @@
       <c r="H80" s="87">
         <v>124</v>
       </c>
-      <c r="I80" s="87">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>80</v>
@@ -24635,11 +24360,8 @@
       <c r="H81" s="87">
         <v>127</v>
       </c>
-      <c r="I81" s="87">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>81</v>
@@ -24665,11 +24387,8 @@
       <c r="H82" s="87">
         <v>130</v>
       </c>
-      <c r="I82" s="87">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>82</v>
@@ -24695,11 +24414,8 @@
       <c r="H83" s="87">
         <v>134</v>
       </c>
-      <c r="I83" s="87">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>83</v>
@@ -24725,11 +24441,8 @@
       <c r="H84" s="87">
         <v>138</v>
       </c>
-      <c r="I84" s="87">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>84</v>
@@ -24755,11 +24468,8 @@
       <c r="H85" s="87">
         <v>142</v>
       </c>
-      <c r="I85" s="87">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>85</v>
@@ -24785,11 +24495,8 @@
       <c r="H86" s="87">
         <v>146</v>
       </c>
-      <c r="I86" s="87">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>86</v>
@@ -24815,11 +24522,8 @@
       <c r="H87" s="87">
         <v>150</v>
       </c>
-      <c r="I87" s="87">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>87</v>
@@ -24845,11 +24549,8 @@
       <c r="H88" s="87">
         <v>154</v>
       </c>
-      <c r="I88" s="87">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>88</v>
@@ -24875,11 +24576,8 @@
       <c r="H89" s="87">
         <v>158</v>
       </c>
-      <c r="I89" s="87">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>89</v>
@@ -24905,11 +24603,8 @@
       <c r="H90" s="87">
         <v>162</v>
       </c>
-      <c r="I90" s="87">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>90</v>
@@ -24935,11 +24630,8 @@
       <c r="H91" s="87">
         <v>166</v>
       </c>
-      <c r="I91" s="87">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>91</v>
@@ -24965,11 +24657,8 @@
       <c r="H92" s="87">
         <v>170</v>
       </c>
-      <c r="I92" s="87">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>92</v>
@@ -24995,11 +24684,8 @@
       <c r="H93" s="87">
         <v>173</v>
       </c>
-      <c r="I93" s="87">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>93</v>
@@ -25025,11 +24711,8 @@
       <c r="H94" s="87">
         <v>176</v>
       </c>
-      <c r="I94" s="87">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>94</v>
@@ -25055,11 +24738,8 @@
       <c r="H95" s="87">
         <v>179</v>
       </c>
-      <c r="I95" s="87">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>95</v>
@@ -25085,11 +24765,8 @@
       <c r="H96" s="87">
         <v>182</v>
       </c>
-      <c r="I96" s="87">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>96</v>
@@ -25115,11 +24792,8 @@
       <c r="H97" s="87">
         <v>185</v>
       </c>
-      <c r="I97" s="87">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>97</v>
@@ -25145,11 +24819,8 @@
       <c r="H98" s="87">
         <v>188</v>
       </c>
-      <c r="I98" s="87">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>98</v>
@@ -25175,11 +24846,8 @@
       <c r="H99" s="87">
         <v>191</v>
       </c>
-      <c r="I99" s="87">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>99</v>
@@ -25205,11 +24873,8 @@
       <c r="H100" s="87">
         <v>194</v>
       </c>
-      <c r="I100" s="87">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>100</v>
@@ -25235,11 +24900,8 @@
       <c r="H101" s="87">
         <v>197</v>
       </c>
-      <c r="I101" s="87">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</f>
         <v>101</v>
@@ -25264,9 +24926,6 @@
       </c>
       <c r="H102" s="87">
         <v>200</v>
-      </c>
-      <c r="I102" s="87">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
